--- a/final.xlsx
+++ b/final.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="40">
   <si>
     <t>Kategooria</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>EUR</t>
+  </si>
+  <si>
+    <t>Kulude summa</t>
+  </si>
+  <si>
+    <t>Tulude summa</t>
   </si>
 </sst>
 </file>
@@ -209,16 +215,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>11</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114313</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -235,8 +241,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6705600" y="190500"/>
-          <a:ext cx="5486411" cy="6400813"/>
+          <a:off x="4267200" y="190500"/>
+          <a:ext cx="5486411" cy="5486411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -247,16 +253,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>15</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38107</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114313</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -273,8 +279,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6705600" y="4000500"/>
-          <a:ext cx="7315215" cy="3657607"/>
+          <a:off x="4267200" y="6477000"/>
+          <a:ext cx="7315215" cy="6400813"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1605,108 +1611,134 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B4">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>550</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>1.49</v>
       </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>4.99</v>
       </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>294.78</v>
       </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>240.88</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>21.26</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>37</v>
       </c>
     </row>

--- a/final.xlsx
+++ b/final.xlsx
@@ -261,8 +261,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>15</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>114313</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38112</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -280,7 +280,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4267200" y="6477000"/>
-          <a:ext cx="7315215" cy="6400813"/>
+          <a:ext cx="7315215" cy="5943612"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1611,16 +1611,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="2" spans="1:8">
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
       <c r="F2" t="s">
         <v>39</v>
       </c>

--- a/final.xlsx
+++ b/final.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="130">
   <si>
     <t>Kategooria</t>
   </si>
@@ -41,6 +41,9 @@
     <t>Ostlemine</t>
   </si>
   <si>
+    <t>Parkimine</t>
+  </si>
+  <si>
     <t>Riik/Pank</t>
   </si>
   <si>
@@ -68,313 +71,325 @@
     <t>aliexpress</t>
   </si>
   <si>
-    <t>Google Payment</t>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>PAYPAL *STEAM GAMES</t>
+  </si>
+  <si>
+    <t>STEAMLEVELS.COM</t>
+  </si>
+  <si>
+    <t>PAYPAL *DISCORD</t>
+  </si>
+  <si>
+    <t>DMarket</t>
+  </si>
+  <si>
+    <t>AIDE AUTOKOOL</t>
+  </si>
+  <si>
+    <t>LOOMEPALMIK</t>
+  </si>
+  <si>
+    <t>TAVID</t>
+  </si>
+  <si>
+    <t>monnakas.ee</t>
+  </si>
+  <si>
+    <t>KULTUURISELTS</t>
+  </si>
+  <si>
+    <t>KIRSIKA</t>
+  </si>
+  <si>
+    <t>KADY</t>
+  </si>
+  <si>
+    <t>MIHKEL</t>
+  </si>
+  <si>
+    <t>Talviste</t>
+  </si>
+  <si>
+    <t>MÄNDMETS</t>
+  </si>
+  <si>
+    <t>TETER</t>
+  </si>
+  <si>
+    <t>MAXI</t>
+  </si>
+  <si>
+    <t>Urbanus</t>
+  </si>
+  <si>
+    <t>AUTOKAUBAD24</t>
+  </si>
+  <si>
+    <t>HOTEL PALME</t>
+  </si>
+  <si>
+    <t>KERLE</t>
+  </si>
+  <si>
+    <t>GARDA</t>
+  </si>
+  <si>
+    <t>MAKSIMARK</t>
+  </si>
+  <si>
+    <t>HELERIN</t>
+  </si>
+  <si>
+    <t>ELIISE</t>
+  </si>
+  <si>
+    <t>PAKIAUTOMAAT</t>
+  </si>
+  <si>
+    <t>JOONAS</t>
+  </si>
+  <si>
+    <t>Riste</t>
+  </si>
+  <si>
+    <t>APT ORIO</t>
+  </si>
+  <si>
+    <t>LOVECAPPUCCINO</t>
+  </si>
+  <si>
+    <t>SIRILA</t>
+  </si>
+  <si>
+    <t>SELV</t>
+  </si>
+  <si>
+    <t>KONSUM</t>
+  </si>
+  <si>
+    <t>Koeru Auto</t>
+  </si>
+  <si>
+    <t>NYA AUTO</t>
+  </si>
+  <si>
+    <t>SIRILA MIRKO</t>
+  </si>
+  <si>
+    <t>KIVI KONSUM ISETEENIND</t>
+  </si>
+  <si>
+    <t>UJULA KONSUM</t>
   </si>
   <si>
     <t>Google Payment IE LTD</t>
   </si>
   <si>
-    <t>PAYPAL *STEAM GAMES</t>
-  </si>
-  <si>
-    <t>STEAMLEVELS.COM</t>
-  </si>
-  <si>
-    <t>PAYPAL *DISCORD</t>
-  </si>
-  <si>
-    <t>DMarket</t>
-  </si>
-  <si>
-    <t>AIDE AUTOKOOL</t>
-  </si>
-  <si>
-    <t>LOOMEPALMIK</t>
-  </si>
-  <si>
-    <t>TAVID</t>
-  </si>
-  <si>
-    <t>KULTUURISELTS</t>
-  </si>
-  <si>
-    <t>ILMJÄRV KIRSIKA</t>
-  </si>
-  <si>
-    <t>KADY AAS</t>
-  </si>
-  <si>
-    <t>MIHKEL TETER</t>
-  </si>
-  <si>
-    <t>KASPAR</t>
-  </si>
-  <si>
-    <t>MÄNDMETS</t>
-  </si>
-  <si>
-    <t>Mihkel Teter</t>
+    <t>Aktsiaselts Eesti Post</t>
+  </si>
+  <si>
+    <t>OLEREX TARTU KVISSENTA</t>
+  </si>
+  <si>
+    <t>NORA VALK</t>
+  </si>
+  <si>
+    <t>tartu.pilet.ee</t>
+  </si>
+  <si>
+    <t>KERLE PÕLDVER</t>
+  </si>
+  <si>
+    <t>IS Music Trading Tartu</t>
+  </si>
+  <si>
+    <t>KERTTU LÕOKE</t>
+  </si>
+  <si>
+    <t>LOOMEPALMIK OU</t>
+  </si>
+  <si>
+    <t>1586 LOUNAKESKUS TA SD</t>
+  </si>
+  <si>
+    <t>ÜPRUS-BOBROVSKI TEELE</t>
+  </si>
+  <si>
+    <t>New Yorker</t>
+  </si>
+  <si>
+    <t>KATIKELLI PESUMAJA OU</t>
+  </si>
+  <si>
+    <t>EVELYN MÄGI</t>
+  </si>
+  <si>
+    <t>BRINK'S ATM ESTONIA</t>
+  </si>
+  <si>
+    <t>Kemel Kivioja</t>
+  </si>
+  <si>
+    <t>CSFLOAT INC.</t>
+  </si>
+  <si>
+    <t>STOKKER</t>
+  </si>
+  <si>
+    <t>Snabb</t>
+  </si>
+  <si>
+    <t>CIRCLE K UUEMOISA</t>
+  </si>
+  <si>
+    <t>CIRCLE K TARTU KVISSEN</t>
+  </si>
+  <si>
+    <t>CIRCLE K TARTU TURU</t>
+  </si>
+  <si>
+    <t>EuroPark</t>
+  </si>
+  <si>
+    <t>SEB</t>
+  </si>
+  <si>
+    <t>AS SEB</t>
+  </si>
+  <si>
+    <t>AS SEB PANK</t>
+  </si>
+  <si>
+    <t>RAHANDUSMINISTEERIUM</t>
+  </si>
+  <si>
+    <t>ALEXELA</t>
+  </si>
+  <si>
+    <t>OLEREX</t>
+  </si>
+  <si>
+    <t>ALEXELA KOERU</t>
+  </si>
+  <si>
+    <t>CITYALKO</t>
+  </si>
+  <si>
+    <t>MAGAZIIN</t>
+  </si>
+  <si>
+    <t>PAIDE MAKSIMARKET</t>
+  </si>
+  <si>
+    <t>MAKSIMARKET</t>
+  </si>
+  <si>
+    <t>GROSSI</t>
+  </si>
+  <si>
+    <t>SPORTSDIRECT</t>
+  </si>
+  <si>
+    <t>PRISMA</t>
+  </si>
+  <si>
+    <t>RAPLA ESPAKI</t>
+  </si>
+  <si>
+    <t>MAXIMA</t>
+  </si>
+  <si>
+    <t>GROSSI TOIDUKAUBAD</t>
+  </si>
+  <si>
+    <t>KASTANI KAUPLUS</t>
+  </si>
+  <si>
+    <t>KOERU KONSUM</t>
+  </si>
+  <si>
+    <t>Maxima</t>
+  </si>
+  <si>
+    <t>RIMI</t>
+  </si>
+  <si>
+    <t>LEMBITU KONSUM ISETEEN</t>
+  </si>
+  <si>
+    <t>A1000MARKET TARTU KALD</t>
+  </si>
+  <si>
+    <t>EVA NARSKA APTEEK KOER</t>
+  </si>
+  <si>
+    <t>KRABA</t>
+  </si>
+  <si>
+    <t>EEDENI MAKSIMARKET</t>
+  </si>
+  <si>
+    <t>RADEMAR LOUNAKESKUS</t>
+  </si>
+  <si>
+    <t>PIIRI POOD</t>
+  </si>
+  <si>
+    <t>UNEARI</t>
+  </si>
+  <si>
+    <t>VORUMAA TOIDUKESKUS</t>
+  </si>
+  <si>
+    <t>EEDENI KESKUSE CHOPSTI</t>
+  </si>
+  <si>
+    <t>KVISSENTALI KONSUM ISE</t>
+  </si>
+  <si>
+    <t>PAE KESKUS</t>
+  </si>
+  <si>
+    <t>LIDL</t>
+  </si>
+  <si>
+    <t>PETCITY EEDEN</t>
+  </si>
+  <si>
+    <t>PAIDE KAUBAMAJA</t>
+  </si>
+  <si>
+    <t>BOLT.EU</t>
+  </si>
+  <si>
+    <t>MAEKYLA</t>
+  </si>
+  <si>
+    <t>SUPERMERCATO</t>
+  </si>
+  <si>
+    <t>STEFFANI</t>
+  </si>
+  <si>
+    <t>MCDONALDS</t>
   </si>
   <si>
     <t>COSE PREZIOSE</t>
   </si>
   <si>
-    <t>MAXI DI SRL</t>
-  </si>
-  <si>
-    <t>Merle Urbanus</t>
-  </si>
-  <si>
-    <t>AUTOKAUBAD24</t>
-  </si>
-  <si>
-    <t>HOTEL PALME</t>
-  </si>
-  <si>
-    <t>Kerle Koppel</t>
-  </si>
-  <si>
-    <t>GARDA</t>
-  </si>
-  <si>
-    <t>Prisma</t>
-  </si>
-  <si>
-    <t>HELERIN LUIKER</t>
-  </si>
-  <si>
-    <t>ELIISE KALLASMAA</t>
-  </si>
-  <si>
-    <t>PAKIAUTOMAAT</t>
-  </si>
-  <si>
-    <t>JOONAS PAPPEL</t>
-  </si>
-  <si>
-    <t>PARNU MAARAHVA POOD</t>
-  </si>
-  <si>
-    <t>Riste Helene Pard</t>
-  </si>
-  <si>
-    <t>APT ORIO</t>
-  </si>
-  <si>
     <t>OHANA</t>
   </si>
   <si>
-    <t>Lovecappuccino</t>
-  </si>
-  <si>
-    <t>SIRILA MIRKO</t>
-  </si>
-  <si>
-    <t>NYA*Koeru Auto</t>
-  </si>
-  <si>
-    <t>Snabb</t>
-  </si>
-  <si>
-    <t>KIVI KONSUM ISETEENIND</t>
-  </si>
-  <si>
-    <t>LEMBITU KONSUM ISETEEN</t>
-  </si>
-  <si>
-    <t>Aktsiaselts Eesti Post</t>
-  </si>
-  <si>
-    <t>STOKKER</t>
-  </si>
-  <si>
-    <t>NORA VALK</t>
-  </si>
-  <si>
-    <t>tartu.pilet.ee</t>
-  </si>
-  <si>
-    <t>KERLE PÕLDVER</t>
-  </si>
-  <si>
-    <t>EVA NARSKA APTEEK KOER</t>
-  </si>
-  <si>
-    <t>UNEARI</t>
-  </si>
-  <si>
-    <t>IS Music Trading Tartu</t>
-  </si>
-  <si>
-    <t>KERTTU LÕOKE</t>
-  </si>
-  <si>
-    <t>LOOMEPALMIK OU</t>
-  </si>
-  <si>
-    <t>1586 LOUNAKESKUS TA SD</t>
-  </si>
-  <si>
-    <t>ÜPRUS-BOBROVSKI TEELE</t>
-  </si>
-  <si>
-    <t>New Yorker</t>
-  </si>
-  <si>
-    <t>KATIKELLI PESUMAJA OU</t>
-  </si>
-  <si>
-    <t>EVELYN MÄGI</t>
-  </si>
-  <si>
-    <t>Kemel Kivioja</t>
-  </si>
-  <si>
-    <t>CSFLOAT INC.</t>
-  </si>
-  <si>
-    <t>monnakas.ee</t>
-  </si>
-  <si>
-    <t>SPORTSDIRECT</t>
-  </si>
-  <si>
-    <t>EuroPark</t>
-  </si>
-  <si>
-    <t>SEB</t>
-  </si>
-  <si>
-    <t>AS SEB PANK</t>
-  </si>
-  <si>
-    <t>RAHANDUSMINISTEERIUM</t>
-  </si>
-  <si>
-    <t>BRINK'S ATM ESTONIA</t>
-  </si>
-  <si>
-    <t>ALEXELA</t>
-  </si>
-  <si>
-    <t>OLEREX</t>
-  </si>
-  <si>
-    <t>CIRCLE K UUEMOISA</t>
-  </si>
-  <si>
-    <t>CIRCLE K TARTU KVISSEN</t>
-  </si>
-  <si>
-    <t>CIRCLE K TARTU TURU</t>
-  </si>
-  <si>
-    <t>ALEXELA KOERU</t>
-  </si>
-  <si>
-    <t>CITYALKO</t>
-  </si>
-  <si>
-    <t>KONSUM</t>
-  </si>
-  <si>
-    <t>MAGAZIIN</t>
-  </si>
-  <si>
-    <t>MAKSIMARKET</t>
-  </si>
-  <si>
-    <t>GROSSI</t>
-  </si>
-  <si>
-    <t>ESPARK</t>
-  </si>
-  <si>
-    <t>Maxima</t>
-  </si>
-  <si>
-    <t>SELVER</t>
-  </si>
-  <si>
-    <t>GROSSI TOIDUKAUBAD</t>
-  </si>
-  <si>
-    <t>UJULA KONSUM</t>
-  </si>
-  <si>
-    <t>KASTANI KAUPLUS</t>
-  </si>
-  <si>
-    <t>KOERU KONSUM</t>
-  </si>
-  <si>
-    <t>RIMI</t>
-  </si>
-  <si>
-    <t>OLEREX TARTU KVISSENTA</t>
-  </si>
-  <si>
-    <t>A1000MARKET TARTU KALD</t>
-  </si>
-  <si>
-    <t>KRABA</t>
-  </si>
-  <si>
-    <t>EEDENI MAKSIMARKET</t>
-  </si>
-  <si>
-    <t>RADEMAR LOUNAKESKUS</t>
-  </si>
-  <si>
-    <t>PIIRI POOD</t>
-  </si>
-  <si>
-    <t>PAIDE MAKSIMARKET</t>
-  </si>
-  <si>
-    <t>VORUMAA TOIDUKESKUS</t>
-  </si>
-  <si>
-    <t>EEDENI KESKUSE CHOPSTI</t>
-  </si>
-  <si>
-    <t>KVISSENTALI KONSUM ISE</t>
-  </si>
-  <si>
-    <t>PAE KESKUS</t>
+    <t>HESBURGER</t>
+  </si>
+  <si>
+    <t>HELLERI KOHVIK</t>
   </si>
   <si>
     <t>CHOPSTICKS</t>
-  </si>
-  <si>
-    <t>LIDL</t>
-  </si>
-  <si>
-    <t>PETCITY EEDEN</t>
-  </si>
-  <si>
-    <t>PAIDE KAUBAMAJA</t>
-  </si>
-  <si>
-    <t>BOLT.EU</t>
-  </si>
-  <si>
-    <t>MAEKYLA PIZZAKIOSK</t>
-  </si>
-  <si>
-    <t>SUPERMERCATO FLISI</t>
-  </si>
-  <si>
-    <t>STEFFANI PIZZARESTORAN</t>
-  </si>
-  <si>
-    <t>MCDONALDS</t>
-  </si>
-  <si>
-    <t>HESBURGER</t>
-  </si>
-  <si>
-    <t>HELLERI KOHVIK</t>
   </si>
   <si>
     <t>MCDONALDS TARTU</t>
@@ -860,13 +875,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>-111</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -877,13 +892,13 @@
         <v>45323</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>-78</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -894,13 +909,13 @@
         <v>45294</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>-14.37</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -908,13 +923,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>-14.09</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -922,13 +937,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>-6.69</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -936,44 +951,44 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>-2.19</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="B8" s="2">
+        <v>45542</v>
+      </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>3.49</v>
+        <v>5.79</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
-        <v>45542</v>
-      </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>5.79</v>
+        <v>6.33</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -981,13 +996,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>6.33</v>
+        <v>9.99</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -995,58 +1010,58 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>9.99</v>
+        <v>54.5</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>54.5</v>
+        <v>-120</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>6</v>
       </c>
+      <c r="B13" s="2">
+        <v>45538</v>
+      </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>-120</v>
+        <v>-101.5</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2">
-        <v>45538</v>
-      </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>-101.5</v>
+        <v>-98.87</v>
       </c>
       <c r="E14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1054,13 +1069,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>-98.87</v>
+        <v>-75.59999999999999</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1071,13 +1086,13 @@
         <v>45505</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <v>-65</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1085,13 +1100,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17">
         <v>-35</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1102,13 +1117,13 @@
         <v>45354</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18">
         <v>-21.25</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1122,7 +1137,7 @@
         <v>-21</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1133,13 +1148,13 @@
         <v>45415</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20">
         <v>-17</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1150,13 +1165,13 @@
         <v>45415</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>-17</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1167,13 +1182,13 @@
         <v>45476</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>-17</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1184,13 +1199,13 @@
         <v>45476</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>-17</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1201,13 +1216,13 @@
         <v>45447</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>-15</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1215,47 +1230,47 @@
         <v>6</v>
       </c>
       <c r="B25" s="2">
-        <v>45508</v>
+        <v>45447</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>-15</v>
+        <v>-13.87</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="2">
-        <v>45447</v>
-      </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>-13.87</v>
+        <v>-11.44</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>6</v>
       </c>
+      <c r="B27" s="2">
+        <v>45324</v>
+      </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>-11.44</v>
+        <v>-10</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1263,33 +1278,30 @@
         <v>6</v>
       </c>
       <c r="B28" s="2">
-        <v>45324</v>
+        <v>45477</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D28">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="2">
-        <v>45477</v>
-      </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>-9</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1303,7 +1315,7 @@
         <v>-8.5</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1320,7 +1332,7 @@
         <v>-8</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1337,7 +1349,7 @@
         <v>-7.8</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1351,7 +1363,7 @@
         <v>-6.4</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1368,7 +1380,7 @@
         <v>-6</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1379,10 +1391,10 @@
         <v>40</v>
       </c>
       <c r="D35">
-        <v>-5.33</v>
+        <v>-5.59</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1396,7 +1408,7 @@
         <v>-5</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1410,7 +1422,7 @@
         <v>-5</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1427,7 +1439,7 @@
         <v>-4.39</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1441,7 +1453,7 @@
         <v>-4.18</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1449,44 +1461,44 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D40">
-        <v>-3.95</v>
+        <v>-3.18</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>6</v>
       </c>
+      <c r="B41" s="2">
+        <v>45119</v>
+      </c>
       <c r="C41" t="s">
         <v>43</v>
       </c>
       <c r="D41">
-        <v>-3.18</v>
+        <v>-3.08</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="2">
-        <v>45119</v>
-      </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D42">
-        <v>-3.08</v>
+        <v>-3</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1494,16 +1506,16 @@
         <v>6</v>
       </c>
       <c r="B43" s="2">
-        <v>45508</v>
+        <v>45539</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D43">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1511,47 +1523,41 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D44">
-        <v>-3</v>
+        <v>-2.2</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="2">
-        <v>45539</v>
-      </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D45">
-        <v>-2.8</v>
+        <v>-2.05</v>
       </c>
       <c r="E45" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="2">
-        <v>45539</v>
-      </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D46">
-        <v>-2.59</v>
+        <v>-1.98</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1559,13 +1565,13 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D47">
-        <v>-2.2</v>
+        <v>-1.79</v>
       </c>
       <c r="E47" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1573,13 +1579,13 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D48">
-        <v>-2.05</v>
+        <v>-1.55</v>
       </c>
       <c r="E48" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1587,13 +1593,13 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D49">
-        <v>-1.55</v>
+        <v>-1.49</v>
       </c>
       <c r="E49" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1601,13 +1607,13 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D50">
-        <v>-1.49</v>
+        <v>-1.48</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1615,27 +1621,30 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D51">
-        <v>-1.48</v>
+        <v>-1.39</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>6</v>
       </c>
+      <c r="B52" s="2">
+        <v>45326</v>
+      </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D52">
-        <v>-1.39</v>
+        <v>-1.33</v>
       </c>
       <c r="E52" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1643,33 +1652,30 @@
         <v>6</v>
       </c>
       <c r="B53" s="2">
-        <v>45326</v>
+        <v>45568</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D53">
-        <v>-1.33</v>
+        <v>-1.24</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="2">
-        <v>45568</v>
-      </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D54">
-        <v>-1.24</v>
+        <v>-1.22</v>
       </c>
       <c r="E54" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1677,44 +1683,44 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D55">
-        <v>-1.22</v>
+        <v>-1.12</v>
       </c>
       <c r="E55" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>6</v>
       </c>
+      <c r="B56" s="2">
+        <v>45539</v>
+      </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D56">
-        <v>-1.12</v>
+        <v>-1.1</v>
       </c>
       <c r="E56" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="2">
-        <v>45539</v>
-      </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D57">
-        <v>-1.1</v>
+        <v>-1.06</v>
       </c>
       <c r="E57" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1722,13 +1728,13 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D58">
-        <v>-1.06</v>
+        <v>-1</v>
       </c>
       <c r="E58" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1742,7 +1748,7 @@
         <v>-1</v>
       </c>
       <c r="E59" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1756,21 +1762,24 @@
         <v>-1</v>
       </c>
       <c r="E60" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>6</v>
       </c>
+      <c r="B61" s="2">
+        <v>45600</v>
+      </c>
       <c r="C61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D61">
         <v>-1</v>
       </c>
       <c r="E61" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1781,13 +1790,13 @@
         <v>45600</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D62">
         <v>-1</v>
       </c>
       <c r="E62" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1798,13 +1807,13 @@
         <v>45600</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D63">
         <v>-1</v>
       </c>
       <c r="E63" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1815,13 +1824,13 @@
         <v>45600</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D64">
         <v>-1</v>
       </c>
       <c r="E64" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1829,33 +1838,30 @@
         <v>6</v>
       </c>
       <c r="B65" s="2">
-        <v>45600</v>
+        <v>45150</v>
       </c>
       <c r="C65" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D65">
-        <v>-1</v>
+        <v>-0.92</v>
       </c>
       <c r="E65" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="2">
-        <v>45150</v>
-      </c>
       <c r="C66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D66">
-        <v>-0.92</v>
+        <v>-0.91</v>
       </c>
       <c r="E66" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1863,13 +1869,13 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D67">
-        <v>-0.91</v>
+        <v>-0.88</v>
       </c>
       <c r="E67" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1877,13 +1883,13 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D68">
-        <v>-0.88</v>
+        <v>-0.86</v>
       </c>
       <c r="E68" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1891,13 +1897,13 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D69">
         <v>-0.86</v>
       </c>
       <c r="E69" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1905,44 +1911,44 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D70">
-        <v>-0.86</v>
+        <v>-0.82</v>
       </c>
       <c r="E70" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>6</v>
       </c>
+      <c r="B71" s="2">
+        <v>45478</v>
+      </c>
       <c r="C71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D71">
-        <v>-0.82</v>
+        <v>-0.8</v>
       </c>
       <c r="E71" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="2">
-        <v>45478</v>
-      </c>
       <c r="C72" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D72">
-        <v>-0.8</v>
+        <v>-0.76</v>
       </c>
       <c r="E72" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1950,13 +1956,13 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D73">
         <v>-0.76</v>
       </c>
       <c r="E73" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1964,89 +1970,92 @@
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D74">
-        <v>-0.76</v>
+        <v>-0.74</v>
       </c>
       <c r="E74" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>6</v>
       </c>
+      <c r="B75" s="2">
+        <v>45631</v>
+      </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D75">
-        <v>-0.74</v>
+        <v>-0.7</v>
       </c>
       <c r="E75" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="2">
-        <v>45631</v>
-      </c>
       <c r="C76" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D76">
-        <v>-0.7</v>
+        <v>-0.68</v>
       </c>
       <c r="E76" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>6</v>
       </c>
+      <c r="B77" s="2">
+        <v>45181</v>
+      </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D77">
-        <v>-0.68</v>
+        <v>-0.65</v>
       </c>
       <c r="E77" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="2">
-        <v>45181</v>
-      </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D78">
-        <v>-0.65</v>
+        <v>-0.64</v>
       </c>
       <c r="E78" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>6</v>
       </c>
+      <c r="B79" s="2">
+        <v>45325</v>
+      </c>
       <c r="C79" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D79">
-        <v>-0.64</v>
+        <v>-0.63</v>
       </c>
       <c r="E79" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2054,16 +2063,16 @@
         <v>6</v>
       </c>
       <c r="B80" s="2">
-        <v>45325</v>
+        <v>45538</v>
       </c>
       <c r="C80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D80">
-        <v>-0.63</v>
+        <v>-0.61</v>
       </c>
       <c r="E80" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2071,33 +2080,30 @@
         <v>6</v>
       </c>
       <c r="B81" s="2">
-        <v>45538</v>
+        <v>45569</v>
       </c>
       <c r="C81" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D81">
         <v>-0.61</v>
       </c>
       <c r="E81" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>6</v>
       </c>
-      <c r="B82" s="2">
-        <v>45569</v>
-      </c>
       <c r="C82" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D82">
-        <v>-0.61</v>
+        <v>-0.6</v>
       </c>
       <c r="E82" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2105,13 +2111,13 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D83">
-        <v>-0.6</v>
+        <v>-0.58</v>
       </c>
       <c r="E83" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2119,13 +2125,13 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D84">
-        <v>-0.58</v>
+        <v>-0.55</v>
       </c>
       <c r="E84" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2133,13 +2139,13 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D85">
-        <v>-0.55</v>
+        <v>-0.52</v>
       </c>
       <c r="E85" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2147,13 +2153,13 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D86">
-        <v>-0.52</v>
+        <v>-0.5</v>
       </c>
       <c r="E86" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2161,13 +2167,13 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D87">
-        <v>-0.5</v>
+        <v>-0.48</v>
       </c>
       <c r="E87" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2175,58 +2181,61 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D88">
-        <v>-0.48</v>
+        <v>-0.46</v>
       </c>
       <c r="E88" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>6</v>
       </c>
+      <c r="B89" s="2">
+        <v>45414</v>
+      </c>
       <c r="C89" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D89">
-        <v>-0.46</v>
+        <v>-0.39</v>
       </c>
       <c r="E89" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="2">
-        <v>45414</v>
-      </c>
       <c r="C90" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D90">
-        <v>-0.39</v>
+        <v>-0.36</v>
       </c>
       <c r="E90" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>6</v>
       </c>
+      <c r="B91" s="2">
+        <v>45448</v>
+      </c>
       <c r="C91" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D91">
         <v>-0.36</v>
       </c>
       <c r="E91" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2234,33 +2243,30 @@
         <v>6</v>
       </c>
       <c r="B92" s="2">
-        <v>45448</v>
+        <v>45600</v>
       </c>
       <c r="C92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D92">
-        <v>-0.36</v>
+        <v>-0.33</v>
       </c>
       <c r="E92" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="2">
-        <v>45600</v>
-      </c>
       <c r="C93" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D93">
         <v>-0.33</v>
       </c>
       <c r="E93" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2268,13 +2274,13 @@
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D94">
-        <v>-0.33</v>
+        <v>-0.31</v>
       </c>
       <c r="E94" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2282,13 +2288,13 @@
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D95">
-        <v>-0.31</v>
+        <v>-0.3</v>
       </c>
       <c r="E95" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2296,13 +2302,13 @@
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D96">
-        <v>-0.3</v>
+        <v>-0.27</v>
       </c>
       <c r="E96" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2310,13 +2316,13 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D97">
-        <v>-0.27</v>
+        <v>-0.21</v>
       </c>
       <c r="E97" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2324,13 +2330,13 @@
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D98">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="E98" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2338,27 +2344,30 @@
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D99">
-        <v>-0.2</v>
+        <v>-0.13</v>
       </c>
       <c r="E99" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>6</v>
       </c>
+      <c r="B100" s="2">
+        <v>45477</v>
+      </c>
       <c r="C100" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D100">
         <v>-0.13</v>
       </c>
       <c r="E100" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2366,64 +2375,61 @@
         <v>6</v>
       </c>
       <c r="B101" s="2">
-        <v>45477</v>
+        <v>45447</v>
       </c>
       <c r="C101" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D101">
-        <v>-0.13</v>
+        <v>-0.11</v>
       </c>
       <c r="E101" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="2">
-        <v>45447</v>
-      </c>
       <c r="C102" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D102">
-        <v>-0.11</v>
+        <v>-0.08</v>
       </c>
       <c r="E102" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>6</v>
       </c>
+      <c r="B103" s="2">
+        <v>45384</v>
+      </c>
       <c r="C103" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D103">
-        <v>-0.08</v>
+        <v>-0.01</v>
       </c>
       <c r="E103" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="2">
-        <v>45384</v>
-      </c>
       <c r="C104" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D104">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="E104" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2431,44 +2437,44 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D105">
         <v>0.01</v>
       </c>
       <c r="E105" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>6</v>
       </c>
+      <c r="B106" s="2">
+        <v>45331</v>
+      </c>
       <c r="C106" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D106">
         <v>0.01</v>
       </c>
       <c r="E106" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>6</v>
       </c>
-      <c r="B107" s="2">
-        <v>45331</v>
-      </c>
       <c r="C107" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D107">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E107" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2476,58 +2482,61 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D108">
         <v>0.02</v>
       </c>
       <c r="E108" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>6</v>
       </c>
+      <c r="B109" s="2">
+        <v>45545</v>
+      </c>
       <c r="C109" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D109">
         <v>0.02</v>
       </c>
       <c r="E109" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>6</v>
       </c>
-      <c r="B110" s="2">
-        <v>45545</v>
-      </c>
       <c r="C110" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D110">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E110" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>6</v>
       </c>
+      <c r="B111" s="2">
+        <v>45636</v>
+      </c>
       <c r="C111" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D111">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E111" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2535,64 +2544,61 @@
         <v>6</v>
       </c>
       <c r="B112" s="2">
-        <v>45636</v>
+        <v>45421</v>
       </c>
       <c r="C112" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D112">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="E112" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="2">
-        <v>45421</v>
-      </c>
       <c r="C113" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D113">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E113" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>6</v>
       </c>
+      <c r="B114" s="2">
+        <v>45605</v>
+      </c>
       <c r="C114" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D114">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E114" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>6</v>
       </c>
-      <c r="B115" s="2">
-        <v>45605</v>
-      </c>
       <c r="C115" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D115">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E115" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2600,13 +2606,13 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D116">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E116" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2614,27 +2620,30 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D117">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="E117" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>6</v>
       </c>
+      <c r="B118" s="2">
+        <v>45542</v>
+      </c>
       <c r="C118" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D118">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="E118" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2642,33 +2651,30 @@
         <v>6</v>
       </c>
       <c r="B119" s="2">
-        <v>45542</v>
+        <v>45572</v>
       </c>
       <c r="C119" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D119">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="E119" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>6</v>
       </c>
-      <c r="B120" s="2">
-        <v>45572</v>
-      </c>
       <c r="C120" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D120">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="E120" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2676,27 +2682,30 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D121">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="E121" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>6</v>
       </c>
+      <c r="B122" s="2">
+        <v>45544</v>
+      </c>
       <c r="C122" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D122">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="E122" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2704,16 +2713,16 @@
         <v>6</v>
       </c>
       <c r="B123" s="2">
-        <v>45544</v>
+        <v>45632</v>
       </c>
       <c r="C123" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D123">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="E123" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2721,16 +2730,16 @@
         <v>6</v>
       </c>
       <c r="B124" s="2">
-        <v>45632</v>
+        <v>45512</v>
       </c>
       <c r="C124" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D124">
         <v>0.28</v>
       </c>
       <c r="E124" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2738,78 +2747,78 @@
         <v>6</v>
       </c>
       <c r="B125" s="2">
-        <v>45512</v>
+        <v>45575</v>
       </c>
       <c r="C125" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D125">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="E125" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>6</v>
       </c>
-      <c r="B126" s="2">
-        <v>45575</v>
-      </c>
       <c r="C126" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D126">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="E126" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>6</v>
       </c>
+      <c r="B127" s="2">
+        <v>45511</v>
+      </c>
       <c r="C127" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D127">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="E127" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>6</v>
       </c>
-      <c r="B128" s="2">
-        <v>45511</v>
-      </c>
       <c r="C128" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D128">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="E128" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>6</v>
       </c>
+      <c r="B129" s="2">
+        <v>45573</v>
+      </c>
       <c r="C129" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D129">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="E129" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2817,16 +2826,16 @@
         <v>6</v>
       </c>
       <c r="B130" s="2">
-        <v>45573</v>
+        <v>45360</v>
       </c>
       <c r="C130" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D130">
         <v>0.38</v>
       </c>
       <c r="E130" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2834,33 +2843,30 @@
         <v>6</v>
       </c>
       <c r="B131" s="2">
-        <v>45360</v>
+        <v>45510</v>
       </c>
       <c r="C131" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D131">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="E131" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>6</v>
       </c>
-      <c r="B132" s="2">
-        <v>45510</v>
-      </c>
       <c r="C132" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D132">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="E132" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2868,13 +2874,13 @@
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D133">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="E133" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2882,27 +2888,30 @@
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D134">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="E134" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>6</v>
       </c>
+      <c r="B135" s="2">
+        <v>45480</v>
+      </c>
       <c r="C135" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D135">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="E135" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2910,16 +2919,16 @@
         <v>6</v>
       </c>
       <c r="B136" s="2">
-        <v>45480</v>
+        <v>45361</v>
       </c>
       <c r="C136" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D136">
         <v>0.46</v>
       </c>
       <c r="E136" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2927,16 +2936,16 @@
         <v>6</v>
       </c>
       <c r="B137" s="2">
-        <v>45361</v>
+        <v>45574</v>
       </c>
       <c r="C137" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D137">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="E137" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2944,16 +2953,16 @@
         <v>6</v>
       </c>
       <c r="B138" s="2">
-        <v>45574</v>
+        <v>45393</v>
       </c>
       <c r="C138" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D138">
         <v>0.49</v>
       </c>
       <c r="E138" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2961,16 +2970,16 @@
         <v>6</v>
       </c>
       <c r="B139" s="2">
-        <v>45393</v>
+        <v>45450</v>
       </c>
       <c r="C139" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D139">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="E139" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2978,33 +2987,30 @@
         <v>6</v>
       </c>
       <c r="B140" s="2">
-        <v>45450</v>
+        <v>45300</v>
       </c>
       <c r="C140" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D140">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="E140" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>6</v>
       </c>
-      <c r="B141" s="2">
-        <v>45300</v>
-      </c>
       <c r="C141" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D141">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="E141" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3012,13 +3018,13 @@
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D142">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="E142" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3026,44 +3032,44 @@
         <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D143">
-        <v>0.55</v>
+        <v>0.62</v>
       </c>
       <c r="E143" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>6</v>
       </c>
+      <c r="B144" s="2">
+        <v>45514</v>
+      </c>
       <c r="C144" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D144">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="E144" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>6</v>
       </c>
-      <c r="B145" s="2">
-        <v>45514</v>
-      </c>
       <c r="C145" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D145">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="E145" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3071,13 +3077,13 @@
         <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D146">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="E146" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3085,44 +3091,44 @@
         <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D147">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E147" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>6</v>
       </c>
+      <c r="B148" s="2">
+        <v>45635</v>
+      </c>
       <c r="C148" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D148">
         <v>0.7</v>
       </c>
       <c r="E148" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>6</v>
       </c>
-      <c r="B149" s="2">
-        <v>45635</v>
-      </c>
       <c r="C149" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D149">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="E149" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3130,44 +3136,44 @@
         <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D150">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E150" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>6</v>
       </c>
+      <c r="B151" s="2">
+        <v>45333</v>
+      </c>
       <c r="C151" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D151">
-        <v>0.8100000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="E151" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>6</v>
       </c>
-      <c r="B152" s="2">
-        <v>45333</v>
-      </c>
       <c r="C152" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D152">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="E152" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3175,13 +3181,13 @@
         <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D153">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="E153" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3189,13 +3195,13 @@
         <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D154">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="E154" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3203,78 +3209,78 @@
         <v>6</v>
       </c>
       <c r="B155" s="2">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="C155" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D155">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="E155" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>6</v>
       </c>
+      <c r="B156" s="2">
+        <v>45514</v>
+      </c>
       <c r="C156" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D156">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="E156" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>6</v>
       </c>
-      <c r="B157" s="2">
-        <v>45360</v>
-      </c>
       <c r="C157" t="s">
         <v>53</v>
       </c>
       <c r="D157">
-        <v>0.98</v>
+        <v>1.07</v>
       </c>
       <c r="E157" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>6</v>
       </c>
+      <c r="B158" s="2">
+        <v>45391</v>
+      </c>
       <c r="C158" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D158">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="E158" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>6</v>
       </c>
-      <c r="B159" s="2">
-        <v>45391</v>
-      </c>
       <c r="C159" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D159">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="E159" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3282,75 +3288,75 @@
         <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D160">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="E160" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>6</v>
       </c>
+      <c r="B161" s="2">
+        <v>45389</v>
+      </c>
       <c r="C161" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D161">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="E161" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>6</v>
       </c>
-      <c r="B162" s="2">
-        <v>45389</v>
-      </c>
       <c r="C162" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D162">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="E162" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>6</v>
       </c>
+      <c r="B163" s="2">
+        <v>45358</v>
+      </c>
       <c r="C163" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D163">
         <v>1.52</v>
       </c>
       <c r="E163" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>6</v>
       </c>
-      <c r="B164" s="2">
-        <v>45358</v>
-      </c>
       <c r="C164" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D164">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="E164" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3358,13 +3364,13 @@
         <v>6</v>
       </c>
       <c r="C165" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D165">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="E165" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3372,13 +3378,13 @@
         <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D166">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="E166" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3386,44 +3392,44 @@
         <v>6</v>
       </c>
       <c r="C167" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>3.49</v>
       </c>
       <c r="E167" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>6</v>
       </c>
-      <c r="B168" s="2">
-        <v>45483</v>
-      </c>
       <c r="C168" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D168">
-        <v>4.37</v>
+        <v>4.39</v>
       </c>
       <c r="E168" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>6</v>
       </c>
+      <c r="B169" s="2">
+        <v>45358</v>
+      </c>
       <c r="C169" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D169">
-        <v>4.39</v>
+        <v>4.6</v>
       </c>
       <c r="E169" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3431,16 +3437,16 @@
         <v>6</v>
       </c>
       <c r="B170" s="2">
-        <v>45481</v>
+        <v>45480</v>
       </c>
       <c r="C170" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D170">
-        <v>4.72</v>
+        <v>5</v>
       </c>
       <c r="E170" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3448,16 +3454,16 @@
         <v>6</v>
       </c>
       <c r="B171" s="2">
-        <v>45480</v>
+        <v>45391</v>
       </c>
       <c r="C171" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D171">
         <v>5</v>
       </c>
       <c r="E171" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3465,16 +3471,16 @@
         <v>6</v>
       </c>
       <c r="B172" s="2">
-        <v>45391</v>
+        <v>45510</v>
       </c>
       <c r="C172" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D172">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E172" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3482,16 +3488,16 @@
         <v>6</v>
       </c>
       <c r="B173" s="2">
-        <v>45510</v>
+        <v>45332</v>
       </c>
       <c r="C173" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D173">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3499,16 +3505,16 @@
         <v>6</v>
       </c>
       <c r="B174" s="2">
-        <v>45450</v>
+        <v>45510</v>
       </c>
       <c r="C174" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D174">
-        <v>6.54</v>
+        <v>12</v>
       </c>
       <c r="E174" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3516,13 +3522,13 @@
         <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D175">
-        <v>11</v>
+        <v>17.7</v>
       </c>
       <c r="E175" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3530,16 +3536,16 @@
         <v>6</v>
       </c>
       <c r="B176" s="2">
-        <v>45332</v>
+        <v>45329</v>
       </c>
       <c r="C176" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D176">
-        <v>11</v>
+        <v>21.5</v>
       </c>
       <c r="E176" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3547,30 +3553,33 @@
         <v>6</v>
       </c>
       <c r="B177" s="2">
-        <v>45510</v>
+        <v>45329</v>
       </c>
       <c r="C177" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D177">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E177" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>6</v>
       </c>
+      <c r="B178" s="2">
+        <v>45329</v>
+      </c>
       <c r="C178" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D178">
-        <v>17.7</v>
+        <v>34.95</v>
       </c>
       <c r="E178" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3578,16 +3587,16 @@
         <v>6</v>
       </c>
       <c r="B179" s="2">
-        <v>45329</v>
+        <v>45419</v>
       </c>
       <c r="C179" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D179">
-        <v>21.5</v>
+        <v>45</v>
       </c>
       <c r="E179" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3595,219 +3604,216 @@
         <v>6</v>
       </c>
       <c r="B180" s="2">
-        <v>45329</v>
+        <v>45606</v>
       </c>
       <c r="C180" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D180">
-        <v>25</v>
+        <v>73.17</v>
       </c>
       <c r="E180" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>6</v>
       </c>
-      <c r="B181" s="2">
-        <v>45329</v>
-      </c>
       <c r="C181" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D181">
-        <v>34.95</v>
+        <v>140</v>
       </c>
       <c r="E181" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>6</v>
       </c>
-      <c r="B182" s="2">
-        <v>45419</v>
-      </c>
       <c r="C182" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D182">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="E182" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>6</v>
       </c>
-      <c r="B183" s="2">
-        <v>45606</v>
-      </c>
       <c r="C183" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D183">
-        <v>73.17</v>
+        <v>500</v>
       </c>
       <c r="E183" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>6</v>
       </c>
+      <c r="B184" s="2">
+        <v>45482</v>
+      </c>
       <c r="C184" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D184">
-        <v>140</v>
+        <v>550</v>
       </c>
       <c r="E184" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>6</v>
       </c>
+      <c r="B185" s="2">
+        <v>45482</v>
+      </c>
       <c r="C185" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D185">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E185" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>6</v>
       </c>
-      <c r="B186" s="2">
-        <v>45482</v>
-      </c>
       <c r="C186" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D186">
-        <v>550</v>
+        <v>595.1900000000001</v>
       </c>
       <c r="E186" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B187" s="2">
-        <v>45482</v>
+        <v>45481</v>
       </c>
       <c r="C187" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D187">
-        <v>550</v>
+        <v>4.72</v>
       </c>
       <c r="E187" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B188" s="2">
+        <v>45358</v>
       </c>
       <c r="C188" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D188">
-        <v>595.1900000000001</v>
+        <v>0.95</v>
       </c>
       <c r="E188" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D189">
-        <v>-75.59999999999999</v>
+        <v>1.65</v>
       </c>
       <c r="E189" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>7</v>
-      </c>
-      <c r="B190" s="2">
-        <v>45631</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D190">
-        <v>-9.5</v>
+        <v>1.65</v>
       </c>
       <c r="E190" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B191" s="2">
+        <v>45300</v>
       </c>
       <c r="C191" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D191">
-        <v>-8.699999999999999</v>
+        <v>2.99</v>
       </c>
       <c r="E191" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>8</v>
       </c>
-      <c r="B192" s="2">
-        <v>45570</v>
-      </c>
       <c r="C192" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D192">
-        <v>-1.5</v>
+        <v>3.25</v>
       </c>
       <c r="E192" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>8</v>
       </c>
+      <c r="B193" s="2">
+        <v>45605</v>
+      </c>
       <c r="C193" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D193">
-        <v>-1</v>
+        <v>3.3</v>
       </c>
       <c r="E193" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3815,13 +3821,13 @@
         <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D194">
-        <v>-1</v>
+        <v>12.08</v>
       </c>
       <c r="E194" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3829,499 +3835,499 @@
         <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D195">
-        <v>-1</v>
+        <v>12.38</v>
       </c>
       <c r="E195" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B196" s="2">
+        <v>45570</v>
       </c>
       <c r="C196" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D196">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="E196" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D197">
-        <v>-0.38</v>
+        <v>-1</v>
       </c>
       <c r="E197" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D198">
-        <v>-0.38</v>
+        <v>-1</v>
       </c>
       <c r="E198" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>8</v>
-      </c>
-      <c r="B199" s="2">
-        <v>45324</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D199">
-        <v>-0.38</v>
+        <v>-1</v>
       </c>
       <c r="E199" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>8</v>
-      </c>
-      <c r="B200" s="2">
-        <v>45447</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D200">
-        <v>-0.38</v>
+        <v>-1</v>
       </c>
       <c r="E200" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>8</v>
-      </c>
-      <c r="B201" s="2">
-        <v>45477</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D201">
         <v>-0.38</v>
       </c>
       <c r="E201" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>8</v>
-      </c>
-      <c r="B202" s="2">
-        <v>45505</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D202">
-        <v>-0.16</v>
+        <v>-0.38</v>
       </c>
       <c r="E202" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B203" s="2">
-        <v>45354</v>
+        <v>45324</v>
       </c>
       <c r="C203" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D203">
-        <v>-0.16</v>
+        <v>-0.38</v>
       </c>
       <c r="E203" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B204" s="2">
+        <v>45447</v>
       </c>
       <c r="C204" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D204">
-        <v>-0.16</v>
+        <v>-0.38</v>
       </c>
       <c r="E204" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B205" s="2">
+        <v>45477</v>
       </c>
       <c r="C205" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D205">
-        <v>-0.16</v>
+        <v>-0.38</v>
       </c>
       <c r="E205" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B206" s="2">
-        <v>45293</v>
+        <v>45505</v>
       </c>
       <c r="C206" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D206">
-        <v>-0.05</v>
+        <v>-0.16</v>
       </c>
       <c r="E206" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B207" s="2">
-        <v>45296</v>
+        <v>45354</v>
       </c>
       <c r="C207" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D207">
-        <v>-0.05</v>
+        <v>-0.16</v>
       </c>
       <c r="E207" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>8</v>
-      </c>
-      <c r="B208" s="2">
-        <v>45294</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D208">
-        <v>-0.04</v>
+        <v>-0.16</v>
       </c>
       <c r="E208" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>8</v>
-      </c>
-      <c r="B209" s="2">
-        <v>45295</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D209">
-        <v>-0.04</v>
+        <v>-0.16</v>
       </c>
       <c r="E209" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B210" s="2">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="C210" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D210">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="E210" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B211" s="2">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="C211" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D211">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
       <c r="E211" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B212" s="2">
         <v>45294</v>
       </c>
       <c r="C212" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D212">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="E212" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B213" s="2">
         <v>45295</v>
       </c>
       <c r="C213" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D213">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="E213" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B214" s="2">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="C214" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D214">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="E214" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B215" s="2">
-        <v>45297</v>
+        <v>45293</v>
       </c>
       <c r="C215" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D215">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="E215" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B216" s="2">
-        <v>45298</v>
+        <v>45294</v>
       </c>
       <c r="C216" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D216">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="E216" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B217" s="2">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="C217" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D217">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="E217" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B218" s="2">
-        <v>45299</v>
+        <v>45296</v>
       </c>
       <c r="C218" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D218">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="E218" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B219" s="2">
         <v>45297</v>
       </c>
       <c r="C219" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D219">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E219" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B220" s="2">
         <v>45298</v>
       </c>
       <c r="C220" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D220">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E220" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B221" s="2">
         <v>45300</v>
       </c>
       <c r="C221" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D221">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E221" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B222" s="2">
-        <v>45332</v>
+        <v>45299</v>
       </c>
       <c r="C222" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D222">
-        <v>45</v>
+        <v>0.02</v>
       </c>
       <c r="E222" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B223" s="2">
+        <v>45297</v>
       </c>
       <c r="C223" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D223">
-        <v>140</v>
+        <v>0.04</v>
       </c>
       <c r="E223" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
         <v>9</v>
       </c>
+      <c r="B224" s="2">
+        <v>45298</v>
+      </c>
       <c r="C224" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D224">
-        <v>-58.92</v>
+        <v>0.05</v>
       </c>
       <c r="E224" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>9</v>
       </c>
+      <c r="B225" s="2">
+        <v>45300</v>
+      </c>
       <c r="C225" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D225">
-        <v>-57.09</v>
+        <v>0.05</v>
       </c>
       <c r="E225" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4329,1933 +4335,1942 @@
         <v>9</v>
       </c>
       <c r="B226" s="2">
-        <v>45353</v>
+        <v>45332</v>
       </c>
       <c r="C226" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D226">
-        <v>-49.99</v>
+        <v>45</v>
       </c>
       <c r="E226" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>9</v>
-      </c>
-      <c r="B227" s="2">
-        <v>45601</v>
+        <v>10</v>
       </c>
       <c r="C227" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D227">
-        <v>-13.3</v>
+        <v>-58.92</v>
       </c>
       <c r="E227" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C228" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D228">
-        <v>1.65</v>
+        <v>-57.09</v>
       </c>
       <c r="E228" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B229" s="2">
+        <v>45353</v>
       </c>
       <c r="C229" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D229">
-        <v>1.65</v>
+        <v>-49.99</v>
       </c>
       <c r="E229" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B230" s="2">
-        <v>45300</v>
+        <v>45448</v>
       </c>
       <c r="C230" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D230">
-        <v>2.99</v>
+        <v>-19.2</v>
       </c>
       <c r="E230" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B231" s="2">
+        <v>45601</v>
       </c>
       <c r="C231" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D231">
-        <v>3.25</v>
+        <v>-13.3</v>
       </c>
       <c r="E231" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B232" s="2">
-        <v>45605</v>
+        <v>45417</v>
       </c>
       <c r="C232" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D232">
-        <v>3.3</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="E232" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B233" s="2">
+        <v>45543</v>
       </c>
       <c r="C233" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D233">
-        <v>12.08</v>
+        <v>13.63</v>
       </c>
       <c r="E233" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C234" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D234">
-        <v>12.38</v>
+        <v>58.11</v>
       </c>
       <c r="E234" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>9</v>
-      </c>
-      <c r="B235" s="2">
-        <v>45543</v>
+        <v>10</v>
       </c>
       <c r="C235" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D235">
-        <v>13.63</v>
+        <v>71.5</v>
       </c>
       <c r="E235" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C236" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D236">
-        <v>58.11</v>
+        <v>-102.57</v>
       </c>
       <c r="E236" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C237" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D237">
-        <v>71.5</v>
+        <v>-39.54</v>
       </c>
       <c r="E237" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C238" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D238">
-        <v>-102.57</v>
+        <v>-29.32</v>
       </c>
       <c r="E238" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C239" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D239">
-        <v>-39.54</v>
+        <v>-29.01</v>
       </c>
       <c r="E239" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C240" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D240">
-        <v>-29.32</v>
+        <v>-27.92</v>
       </c>
       <c r="E240" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C241" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D241">
-        <v>-29.01</v>
+        <v>-27.17</v>
       </c>
       <c r="E241" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B242" s="2">
+        <v>45150</v>
       </c>
       <c r="C242" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="D242">
-        <v>-27.92</v>
+        <v>-26.35</v>
       </c>
       <c r="E242" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C243" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="D243">
-        <v>-27.17</v>
+        <v>-24.66</v>
       </c>
       <c r="E243" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>10</v>
-      </c>
-      <c r="B244" s="2">
-        <v>45150</v>
+        <v>11</v>
       </c>
       <c r="C244" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D244">
-        <v>-26.35</v>
+        <v>-23.73</v>
       </c>
       <c r="E244" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C245" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D245">
-        <v>-24.66</v>
+        <v>-20.97</v>
       </c>
       <c r="E245" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C246" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D246">
-        <v>-23.73</v>
+        <v>-17.26</v>
       </c>
       <c r="E246" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C247" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="D247">
-        <v>-20.97</v>
+        <v>-13.12</v>
       </c>
       <c r="E247" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B248" s="2">
+        <v>45295</v>
       </c>
       <c r="C248" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D248">
-        <v>-17.26</v>
+        <v>-12.2</v>
       </c>
       <c r="E248" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B249" s="2">
+        <v>45631</v>
       </c>
       <c r="C249" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D249">
-        <v>-13.12</v>
+        <v>-9.5</v>
       </c>
       <c r="E249" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B250" s="2">
         <v>45295</v>
       </c>
       <c r="C250" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D250">
-        <v>-12.2</v>
+        <v>-9.470000000000001</v>
       </c>
       <c r="E250" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>10</v>
-      </c>
-      <c r="B251" s="2">
-        <v>45295</v>
+        <v>11</v>
       </c>
       <c r="C251" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D251">
-        <v>-9.470000000000001</v>
+        <v>-8.42</v>
       </c>
       <c r="E251" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B252" s="2">
+        <v>45416</v>
       </c>
       <c r="C252" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D252">
-        <v>-8.42</v>
+        <v>-6.89</v>
       </c>
       <c r="E252" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>10</v>
-      </c>
-      <c r="B253" s="2">
-        <v>45416</v>
+        <v>11</v>
       </c>
       <c r="C253" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D253">
-        <v>-6.89</v>
+        <v>-6.42</v>
       </c>
       <c r="E253" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B254" s="2">
+        <v>45569</v>
       </c>
       <c r="C254" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D254">
-        <v>-6.42</v>
+        <v>-5.67</v>
       </c>
       <c r="E254" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>10</v>
-      </c>
-      <c r="B255" s="2">
-        <v>45569</v>
+        <v>11</v>
       </c>
       <c r="C255" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D255">
         <v>-5.67</v>
       </c>
       <c r="E255" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C256" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D256">
-        <v>-5.67</v>
+        <v>-5.33</v>
       </c>
       <c r="E256" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C257" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D257">
         <v>-5.22</v>
       </c>
       <c r="E257" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C258" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D258">
         <v>-5.2</v>
       </c>
       <c r="E258" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C259" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D259">
         <v>-4.99</v>
       </c>
       <c r="E259" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C260" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D260">
         <v>-4.36</v>
       </c>
       <c r="E260" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C261" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D261">
         <v>-4.24</v>
       </c>
       <c r="E261" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C262" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D262">
         <v>-4.19</v>
       </c>
       <c r="E262" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C263" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D263">
         <v>-4.18</v>
       </c>
       <c r="E263" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C264" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D264">
         <v>-4.14</v>
       </c>
       <c r="E264" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B265" s="2">
         <v>45417</v>
       </c>
       <c r="C265" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D265">
         <v>-3.94</v>
       </c>
       <c r="E265" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C266" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D266">
         <v>-3.64</v>
       </c>
       <c r="E266" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C267" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D267">
         <v>-3.48</v>
       </c>
       <c r="E267" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B268" s="2">
         <v>45538</v>
       </c>
       <c r="C268" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D268">
         <v>-2.26</v>
       </c>
       <c r="E268" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C269" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D269">
         <v>-2.24</v>
       </c>
       <c r="E269" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C270" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D270">
-        <v>-1.98</v>
+        <v>-1.18</v>
       </c>
       <c r="E270" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B271" s="2">
+        <v>45384</v>
       </c>
       <c r="C271" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D271">
-        <v>-1.79</v>
+        <v>-0.61</v>
       </c>
       <c r="E271" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C272" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D272">
-        <v>-1.18</v>
+        <v>0.68</v>
       </c>
       <c r="E272" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>10</v>
-      </c>
-      <c r="B273" s="2">
-        <v>45384</v>
+        <v>11</v>
       </c>
       <c r="C273" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D273">
-        <v>-0.61</v>
+        <v>0.99</v>
       </c>
       <c r="E273" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C274" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="D274">
-        <v>0.68</v>
+        <v>1.09</v>
       </c>
       <c r="E274" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B275" s="2">
-        <v>45514</v>
+        <v>45632</v>
       </c>
       <c r="C275" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D275">
-        <v>0.98</v>
+        <v>1.15</v>
       </c>
       <c r="E275" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B276" s="2">
+        <v>45332</v>
       </c>
       <c r="C276" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D276">
-        <v>0.99</v>
+        <v>1.54</v>
       </c>
       <c r="E276" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C277" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D277">
-        <v>1.09</v>
+        <v>1.74</v>
       </c>
       <c r="E277" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B278" s="2">
-        <v>45632</v>
+        <v>45606</v>
       </c>
       <c r="C278" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D278">
-        <v>1.15</v>
+        <v>1.95</v>
       </c>
       <c r="E278" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>10</v>
-      </c>
-      <c r="B279" s="2">
-        <v>45332</v>
+        <v>11</v>
       </c>
       <c r="C279" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D279">
-        <v>1.54</v>
+        <v>2.64</v>
       </c>
       <c r="E279" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C280" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D280">
-        <v>1.74</v>
+        <v>3.05</v>
       </c>
       <c r="E280" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B281" s="2">
-        <v>45606</v>
+        <v>45302</v>
       </c>
       <c r="C281" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="D281">
-        <v>1.95</v>
+        <v>3.13</v>
       </c>
       <c r="E281" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C282" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D282">
-        <v>2.64</v>
+        <v>3.49</v>
       </c>
       <c r="E282" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B283" s="2">
+        <v>45602</v>
       </c>
       <c r="C283" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D283">
-        <v>3.05</v>
+        <v>3.72</v>
       </c>
       <c r="E283" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B284" s="2">
-        <v>45302</v>
+        <v>45545</v>
       </c>
       <c r="C284" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D284">
-        <v>3.13</v>
+        <v>3.81</v>
       </c>
       <c r="E284" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B285" s="2">
+        <v>45358</v>
       </c>
       <c r="C285" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D285">
-        <v>3.49</v>
+        <v>3.84</v>
       </c>
       <c r="E285" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>10</v>
-      </c>
-      <c r="B286" s="2">
-        <v>45602</v>
+        <v>11</v>
       </c>
       <c r="C286" t="s">
         <v>96</v>
       </c>
       <c r="D286">
-        <v>3.72</v>
+        <v>3.88</v>
       </c>
       <c r="E286" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B287" s="2">
-        <v>45545</v>
+        <v>45483</v>
       </c>
       <c r="C287" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D287">
-        <v>3.81</v>
+        <v>4.37</v>
       </c>
       <c r="E287" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>10</v>
-      </c>
-      <c r="B288" s="2">
-        <v>45358</v>
+        <v>11</v>
       </c>
       <c r="C288" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D288">
-        <v>3.84</v>
+        <v>4.76</v>
       </c>
       <c r="E288" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C289" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D289">
-        <v>3.88</v>
+        <v>5.19</v>
       </c>
       <c r="E289" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>10</v>
-      </c>
-      <c r="B290" s="2">
-        <v>45358</v>
+        <v>11</v>
       </c>
       <c r="C290" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D290">
-        <v>4.6</v>
+        <v>5.76</v>
       </c>
       <c r="E290" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C291" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D291">
-        <v>4.76</v>
+        <v>6.09</v>
       </c>
       <c r="E291" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C292" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D292">
-        <v>5.19</v>
+        <v>6.23</v>
       </c>
       <c r="E292" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C293" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D293">
-        <v>5.76</v>
+        <v>6.3</v>
       </c>
       <c r="E293" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B294" s="2">
+        <v>45450</v>
       </c>
       <c r="C294" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D294">
-        <v>6.09</v>
+        <v>6.54</v>
       </c>
       <c r="E294" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C295" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D295">
-        <v>6.23</v>
+        <v>6.58</v>
       </c>
       <c r="E295" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C296" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D296">
-        <v>6.3</v>
+        <v>6.87</v>
       </c>
       <c r="E296" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C297" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D297">
-        <v>6.58</v>
+        <v>7.07</v>
       </c>
       <c r="E297" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B298" s="2">
+        <v>45362</v>
       </c>
       <c r="C298" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D298">
-        <v>6.87</v>
+        <v>7.51</v>
       </c>
       <c r="E298" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B299" s="2">
+        <v>45479</v>
       </c>
       <c r="C299" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D299">
-        <v>7.07</v>
+        <v>7.61</v>
       </c>
       <c r="E299" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>10</v>
-      </c>
-      <c r="B300" s="2">
-        <v>45362</v>
+        <v>11</v>
       </c>
       <c r="C300" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="D300">
-        <v>7.51</v>
+        <v>7.64</v>
       </c>
       <c r="E300" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B301" s="2">
-        <v>45479</v>
+        <v>45543</v>
       </c>
       <c r="C301" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D301">
-        <v>7.61</v>
+        <v>7.99</v>
       </c>
       <c r="E301" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C302" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D302">
-        <v>7.64</v>
+        <v>8.85</v>
       </c>
       <c r="E302" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B303" s="2">
-        <v>45543</v>
+        <v>45358</v>
       </c>
       <c r="C303" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D303">
-        <v>7.99</v>
+        <v>8.99</v>
       </c>
       <c r="E303" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C304" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D304">
-        <v>8.85</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="E304" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B305" s="2">
         <v>45358</v>
       </c>
       <c r="C305" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D305">
-        <v>8.99</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="E305" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B306" s="2">
+        <v>45545</v>
       </c>
       <c r="C306" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D306">
-        <v>9.289999999999999</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E306" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B307" s="2">
         <v>45358</v>
       </c>
       <c r="C307" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D307">
-        <v>9.710000000000001</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="E307" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" t="s">
-        <v>10</v>
-      </c>
-      <c r="B308" s="2">
-        <v>45545</v>
+        <v>11</v>
       </c>
       <c r="C308" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D308">
-        <v>9.890000000000001</v>
+        <v>9.98</v>
       </c>
       <c r="E308" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="s">
-        <v>10</v>
-      </c>
-      <c r="B309" s="2">
-        <v>45358</v>
+        <v>11</v>
       </c>
       <c r="C309" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D309">
-        <v>9.949999999999999</v>
+        <v>9.98</v>
       </c>
       <c r="E309" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C310" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D310">
         <v>9.98</v>
       </c>
       <c r="E310" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C311" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D311">
-        <v>9.98</v>
+        <v>11</v>
       </c>
       <c r="E311" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B312" s="2">
+        <v>45419</v>
       </c>
       <c r="C312" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D312">
-        <v>9.98</v>
+        <v>11.6</v>
       </c>
       <c r="E312" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B313" s="2">
-        <v>45419</v>
+        <v>45480</v>
       </c>
       <c r="C313" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D313">
-        <v>11.6</v>
+        <v>11.64</v>
       </c>
       <c r="E313" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" t="s">
-        <v>10</v>
-      </c>
-      <c r="B314" s="2">
-        <v>45480</v>
+        <v>11</v>
       </c>
       <c r="C314" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D314">
-        <v>11.64</v>
+        <v>12.91</v>
       </c>
       <c r="E314" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B315" s="2">
+        <v>45544</v>
       </c>
       <c r="C315" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D315">
         <v>12.91</v>
       </c>
       <c r="E315" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" t="s">
-        <v>10</v>
-      </c>
-      <c r="B316" s="2">
-        <v>45544</v>
+        <v>11</v>
       </c>
       <c r="C316" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D316">
-        <v>12.91</v>
+        <v>12.99</v>
       </c>
       <c r="E316" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C317" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D317">
-        <v>12.99</v>
+        <v>13.65</v>
       </c>
       <c r="E317" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B318" s="2">
+        <v>45632</v>
       </c>
       <c r="C318" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D318">
-        <v>13.65</v>
+        <v>15.33</v>
       </c>
       <c r="E318" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" t="s">
-        <v>10</v>
-      </c>
-      <c r="B319" s="2">
-        <v>45632</v>
+        <v>11</v>
       </c>
       <c r="C319" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D319">
-        <v>15.33</v>
+        <v>16.38</v>
       </c>
       <c r="E319" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B320" s="2">
+        <v>45544</v>
       </c>
       <c r="C320" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="D320">
-        <v>16.38</v>
+        <v>16.6</v>
       </c>
       <c r="E320" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" t="s">
-        <v>10</v>
-      </c>
-      <c r="B321" s="2">
-        <v>45544</v>
+        <v>11</v>
       </c>
       <c r="C321" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D321">
-        <v>16.6</v>
+        <v>17.21</v>
       </c>
       <c r="E321" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C322" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D322">
-        <v>17.21</v>
+        <v>17.56</v>
       </c>
       <c r="E322" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B323" s="2">
+        <v>45513</v>
       </c>
       <c r="C323" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D323">
-        <v>17.56</v>
+        <v>17.73</v>
       </c>
       <c r="E323" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B324" s="2">
-        <v>45513</v>
+        <v>45329</v>
       </c>
       <c r="C324" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D324">
-        <v>17.73</v>
+        <v>19.82</v>
       </c>
       <c r="E324" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B325" s="2">
-        <v>45358</v>
+        <v>45511</v>
       </c>
       <c r="C325" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D325">
-        <v>19.6</v>
+        <v>19.93</v>
       </c>
       <c r="E325" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" t="s">
-        <v>10</v>
-      </c>
-      <c r="B326" s="2">
-        <v>45329</v>
+        <v>11</v>
       </c>
       <c r="C326" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D326">
-        <v>19.82</v>
+        <v>20.8</v>
       </c>
       <c r="E326" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B327" s="2">
-        <v>45511</v>
+        <v>45634</v>
       </c>
       <c r="C327" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D327">
-        <v>19.93</v>
+        <v>22.6</v>
       </c>
       <c r="E327" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C328" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D328">
-        <v>20.8</v>
+        <v>23.83</v>
       </c>
       <c r="E328" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" t="s">
-        <v>10</v>
-      </c>
-      <c r="B329" s="2">
-        <v>45634</v>
+        <v>11</v>
       </c>
       <c r="C329" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="D329">
-        <v>22.6</v>
+        <v>24.99</v>
       </c>
       <c r="E329" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B330" s="2">
+        <v>45511</v>
       </c>
       <c r="C330" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D330">
-        <v>23.83</v>
+        <v>25.88</v>
       </c>
       <c r="E330" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C331" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="D331">
-        <v>24.99</v>
+        <v>28.98</v>
       </c>
       <c r="E331" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B332" s="2">
-        <v>45511</v>
+        <v>45329</v>
       </c>
       <c r="C332" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D332">
-        <v>25.88</v>
+        <v>41.21</v>
       </c>
       <c r="E332" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B333" s="2">
+        <v>45331</v>
       </c>
       <c r="C333" t="s">
         <v>111</v>
       </c>
       <c r="D333">
-        <v>28.98</v>
+        <v>44.62</v>
       </c>
       <c r="E333" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B334" s="2">
-        <v>45329</v>
+        <v>45419</v>
       </c>
       <c r="C334" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D334">
-        <v>41.21</v>
+        <v>59.9</v>
       </c>
       <c r="E334" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B335" s="2">
-        <v>45331</v>
+        <v>45360</v>
       </c>
       <c r="C335" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D335">
-        <v>44.62</v>
+        <v>0.7</v>
       </c>
       <c r="E335" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B336" s="2">
-        <v>45419</v>
+        <v>45391</v>
       </c>
       <c r="C336" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D336">
-        <v>59.9</v>
+        <v>0.92</v>
       </c>
       <c r="E336" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B337" s="2">
         <v>45360</v>
       </c>
       <c r="C337" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D337">
-        <v>0.7</v>
+        <v>1.23</v>
       </c>
       <c r="E337" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" t="s">
-        <v>11</v>
-      </c>
-      <c r="B338" s="2">
-        <v>45391</v>
+        <v>13</v>
       </c>
       <c r="C338" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D338">
-        <v>0.92</v>
+        <v>-79.7</v>
       </c>
       <c r="E338" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B339" s="2">
-        <v>45360</v>
+        <v>45508</v>
       </c>
       <c r="C339" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D339">
-        <v>1.23</v>
+        <v>-20.8</v>
       </c>
       <c r="E339" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C340" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D340">
-        <v>-79.7</v>
+        <v>-17.4</v>
       </c>
       <c r="E340" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" t="s">
-        <v>12</v>
-      </c>
-      <c r="B341" s="2">
-        <v>45508</v>
+        <v>13</v>
       </c>
       <c r="C341" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D341">
-        <v>-20.8</v>
+        <v>-17.35</v>
       </c>
       <c r="E341" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B342" s="2">
-        <v>45448</v>
+        <v>45508</v>
       </c>
       <c r="C342" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="D342">
-        <v>-19.2</v>
+        <v>-15</v>
       </c>
       <c r="E342" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B343" s="2">
+        <v>45508</v>
       </c>
       <c r="C343" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D343">
-        <v>-17.4</v>
+        <v>-12.9</v>
       </c>
       <c r="E343" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C344" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D344">
-        <v>-17.35</v>
+        <v>-4.45</v>
       </c>
       <c r="E344" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B345" s="2">
         <v>45508</v>
       </c>
       <c r="C345" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D345">
-        <v>-12.9</v>
+        <v>-3</v>
       </c>
       <c r="E345" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B346" s="2">
-        <v>45417</v>
+        <v>45539</v>
       </c>
       <c r="C346" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="D346">
-        <v>-9.699999999999999</v>
+        <v>-2.59</v>
       </c>
       <c r="E346" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C347" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D347">
-        <v>-4.45</v>
+        <v>-1.8</v>
       </c>
       <c r="E347" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B348" s="2">
+        <v>45508</v>
       </c>
       <c r="C348" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D348">
-        <v>-1.8</v>
+        <v>-1.2</v>
       </c>
       <c r="E348" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B349" s="2">
-        <v>45508</v>
+        <v>45574</v>
       </c>
       <c r="C349" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D349">
-        <v>-1.2</v>
+        <v>5.9</v>
       </c>
       <c r="E349" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B350" s="2">
-        <v>45574</v>
+        <v>45358</v>
       </c>
       <c r="C350" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D350">
-        <v>5.9</v>
+        <v>19.6</v>
       </c>
       <c r="E350" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C351" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D351">
         <v>20.8</v>
       </c>
       <c r="E351" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C352" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D352">
         <v>26</v>
       </c>
       <c r="E352" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -6266,7 +6281,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6274,12 +6289,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="F2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6310,16 +6325,16 @@
         <v>226.34</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4">
-        <v>80.09999999999999</v>
+        <v>76.61</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6327,119 +6342,132 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>731.4</v>
+        <v>795.1900000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
       <c r="G5">
-        <v>2658.38</v>
+        <v>2779.87</v>
       </c>
       <c r="H5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>93.8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
       <c r="G6">
-        <v>185.19</v>
+        <v>4.72</v>
       </c>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>208.2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="C7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
       <c r="G7">
-        <v>180.54</v>
+        <v>38.25</v>
       </c>
       <c r="H7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>505.06</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>179.3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
       <c r="G8">
-        <v>743.17</v>
+        <v>45.19</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>176.19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>494</v>
-      </c>
-      <c r="C9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
       <c r="G9">
+        <v>143.24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>739.9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
         <v>2.85</v>
       </c>
-      <c r="H9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>184.5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>52.7</v>
-      </c>
-      <c r="H10" t="s">
-        <v>122</v>
+      <c r="H11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>72.30000000000001</v>
+      </c>
+      <c r="H12" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/final.xlsx
+++ b/final.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="122">
   <si>
     <t>Kategooria</t>
   </si>
@@ -38,12 +38,6 @@
     <t>Muud</t>
   </si>
   <si>
-    <t>Ostlemine</t>
-  </si>
-  <si>
-    <t>Parkimine</t>
-  </si>
-  <si>
     <t>Riik/Pank</t>
   </si>
   <si>
@@ -62,121 +56,169 @@
     <t>GamerPay</t>
   </si>
   <si>
-    <t>GAMER PAY</t>
-  </si>
-  <si>
-    <t>PAYPAL</t>
+    <t>NIUM * GAMER PAY</t>
+  </si>
+  <si>
+    <t>monnakas.ee</t>
+  </si>
+  <si>
+    <t>DMarket</t>
+  </si>
+  <si>
+    <t>PAYPAL *GALAXYLINK</t>
   </si>
   <si>
     <t>aliexpress</t>
   </si>
   <si>
-    <t>Google</t>
+    <t>PAYPAL *DISCORD</t>
+  </si>
+  <si>
+    <t>STEAMLEVELS.COM</t>
   </si>
   <si>
     <t>PAYPAL *STEAM GAMES</t>
   </si>
   <si>
-    <t>STEAMLEVELS.COM</t>
-  </si>
-  <si>
-    <t>PAYPAL *DISCORD</t>
-  </si>
-  <si>
-    <t>DMarket</t>
+    <t>Google Payment IE LTD</t>
+  </si>
+  <si>
+    <t>Google Payment</t>
+  </si>
+  <si>
+    <t>SIRILA MIRKO</t>
+  </si>
+  <si>
+    <t>Kemel Kivioja</t>
   </si>
   <si>
     <t>AIDE AUTOKOOL</t>
   </si>
   <si>
-    <t>LOOMEPALMIK</t>
-  </si>
-  <si>
-    <t>TAVID</t>
-  </si>
-  <si>
-    <t>monnakas.ee</t>
-  </si>
-  <si>
-    <t>KULTUURISELTS</t>
-  </si>
-  <si>
-    <t>KIRSIKA</t>
-  </si>
-  <si>
-    <t>KADY</t>
-  </si>
-  <si>
-    <t>MIHKEL</t>
-  </si>
-  <si>
-    <t>Talviste</t>
-  </si>
-  <si>
-    <t>MÄNDMETS</t>
-  </si>
-  <si>
-    <t>TETER</t>
-  </si>
-  <si>
-    <t>MAXI</t>
-  </si>
-  <si>
-    <t>Urbanus</t>
-  </si>
-  <si>
-    <t>AUTOKAUBAD24</t>
+    <t>LOOMEPALMIK OU</t>
+  </si>
+  <si>
+    <t>TAVID LOUNAKESKUS</t>
+  </si>
+  <si>
+    <t>EVELYN MÄGI</t>
+  </si>
+  <si>
+    <t>KOERU HARIDUS</t>
+  </si>
+  <si>
+    <t>KATIKELLI PESUMAJA OU</t>
+  </si>
+  <si>
+    <t>RAHANDUSMINISTEERIUM</t>
+  </si>
+  <si>
+    <t>ILMJÄRV KIRSIKA</t>
+  </si>
+  <si>
+    <t>New Yorker</t>
+  </si>
+  <si>
+    <t>MAGAZIIN PAIDE</t>
+  </si>
+  <si>
+    <t>ÜPRUS-BOBROVSKI TEELE</t>
+  </si>
+  <si>
+    <t>1586 LOUNAKESKUS TA SD</t>
+  </si>
+  <si>
+    <t>SUPERMERCATO FLISI</t>
+  </si>
+  <si>
+    <t>KADY AAS</t>
+  </si>
+  <si>
+    <t>MIHKEL TETER</t>
+  </si>
+  <si>
+    <t>Kaspar Talviste</t>
+  </si>
+  <si>
+    <t>MÄNDMETS KRISTO</t>
+  </si>
+  <si>
+    <t>Mihkel Teter</t>
+  </si>
+  <si>
+    <t>COSE PREZIOSE</t>
+  </si>
+  <si>
+    <t>MAXI DI SRL</t>
+  </si>
+  <si>
+    <t>KERTTU LÕOKE</t>
+  </si>
+  <si>
+    <t>IS Music Trading Tartu</t>
+  </si>
+  <si>
+    <t>Merle Urbanus</t>
+  </si>
+  <si>
+    <t>AUTOKAUBAD24 OÜ</t>
   </si>
   <si>
     <t>HOTEL PALME</t>
   </si>
   <si>
-    <t>KERLE</t>
+    <t>Kerle Koppel</t>
+  </si>
+  <si>
+    <t>EVA NARSKA APTEEK KOER</t>
   </si>
   <si>
     <t>GARDA</t>
   </si>
   <si>
-    <t>MAKSIMARK</t>
-  </si>
-  <si>
-    <t>HELERIN</t>
-  </si>
-  <si>
-    <t>ELIISE</t>
+    <t>KERLE PÕLDVER</t>
+  </si>
+  <si>
+    <t>HELERIN LUIKER</t>
+  </si>
+  <si>
+    <t>ELIISE KALLASMAA</t>
+  </si>
+  <si>
+    <t>NORA VALK</t>
+  </si>
+  <si>
+    <t>tartu.pilet.ee</t>
+  </si>
+  <si>
+    <t>STOKKER</t>
   </si>
   <si>
     <t>PAKIAUTOMAAT</t>
   </si>
   <si>
-    <t>JOONAS</t>
-  </si>
-  <si>
-    <t>Riste</t>
-  </si>
-  <si>
-    <t>APT ORIO</t>
-  </si>
-  <si>
-    <t>LOVECAPPUCCINO</t>
-  </si>
-  <si>
-    <t>SIRILA</t>
-  </si>
-  <si>
-    <t>SELV</t>
-  </si>
-  <si>
-    <t>KONSUM</t>
-  </si>
-  <si>
-    <t>Koeru Auto</t>
-  </si>
-  <si>
-    <t>NYA AUTO</t>
-  </si>
-  <si>
-    <t>SIRILA MIRKO</t>
+    <t>Aktsiaselts Eesti Post</t>
+  </si>
+  <si>
+    <t>JOONAS PAPPEL</t>
+  </si>
+  <si>
+    <t>KASTANI KAUPLUS</t>
+  </si>
+  <si>
+    <t>Riste Helene Pard</t>
+  </si>
+  <si>
+    <t>APT ORIO AL SERIO</t>
+  </si>
+  <si>
+    <t>OHANA S.A.S.</t>
+  </si>
+  <si>
+    <t>Lovecappuccino OÜ</t>
+  </si>
+  <si>
+    <t>NYA*Koeru Auto</t>
   </si>
   <si>
     <t>KIVI KONSUM ISETEENIND</t>
@@ -185,217 +227,151 @@
     <t>UJULA KONSUM</t>
   </si>
   <si>
-    <t>Google Payment IE LTD</t>
-  </si>
-  <si>
-    <t>Aktsiaselts Eesti Post</t>
+    <t>CSFLOAT INC.-595.19</t>
+  </si>
+  <si>
+    <t>BRINK'S ATM ESTONIA</t>
+  </si>
+  <si>
+    <t>EuroPark Estonia OÜ</t>
+  </si>
+  <si>
+    <t>SEB</t>
+  </si>
+  <si>
+    <t>AS SEB PANK</t>
+  </si>
+  <si>
+    <t>ALEXELA KOERU</t>
+  </si>
+  <si>
+    <t>CIRCLE K TARTU KVISSEN</t>
+  </si>
+  <si>
+    <t>OLEREX TALLINN PEETRI</t>
+  </si>
+  <si>
+    <t>CIRCLE K TARTU TURU</t>
   </si>
   <si>
     <t>OLEREX TARTU KVISSENTA</t>
   </si>
   <si>
-    <t>NORA VALK</t>
-  </si>
-  <si>
-    <t>tartu.pilet.ee</t>
-  </si>
-  <si>
-    <t>KERLE PÕLDVER</t>
-  </si>
-  <si>
-    <t>IS Music Trading Tartu</t>
-  </si>
-  <si>
-    <t>KERTTU LÕOKE</t>
-  </si>
-  <si>
-    <t>LOOMEPALMIK OU</t>
-  </si>
-  <si>
-    <t>1586 LOUNAKESKUS TA SD</t>
-  </si>
-  <si>
-    <t>ÜPRUS-BOBROVSKI TEELE</t>
-  </si>
-  <si>
-    <t>New Yorker</t>
-  </si>
-  <si>
-    <t>KATIKELLI PESUMAJA OU</t>
-  </si>
-  <si>
-    <t>EVELYN MÄGI</t>
-  </si>
-  <si>
-    <t>BRINK'S ATM ESTONIA</t>
-  </si>
-  <si>
-    <t>Kemel Kivioja</t>
-  </si>
-  <si>
-    <t>CSFLOAT INC.</t>
-  </si>
-  <si>
-    <t>STOKKER</t>
+    <t>CIRCLE K UUEMOISA</t>
+  </si>
+  <si>
+    <t>PAIDE CITYALKO</t>
+  </si>
+  <si>
+    <t>PAIDE KAUBAMAJA</t>
+  </si>
+  <si>
+    <t>PAE KESKUS</t>
+  </si>
+  <si>
+    <t>KOERU KONSUM</t>
+  </si>
+  <si>
+    <t>PETCITY EEDEN</t>
+  </si>
+  <si>
+    <t>PAIDE MAKSIMARKET</t>
+  </si>
+  <si>
+    <t>A1000MARKET TARTU KALD</t>
+  </si>
+  <si>
+    <t>LIDL</t>
+  </si>
+  <si>
+    <t>GROSSI TOIDUKAUBAD</t>
+  </si>
+  <si>
+    <t>KVISSENTALI KONSUM ISE</t>
+  </si>
+  <si>
+    <t>EEDENI KESKUSE CHOPSTI</t>
+  </si>
+  <si>
+    <t>LEMBITU KONSUM ISETEEN</t>
+  </si>
+  <si>
+    <t>VORUMAA TOIDUKESKUS</t>
+  </si>
+  <si>
+    <t>KRABA</t>
+  </si>
+  <si>
+    <t>UNEARI</t>
+  </si>
+  <si>
+    <t>PIIRI POOD</t>
+  </si>
+  <si>
+    <t>RADEMAR LOUNAKESKUS</t>
+  </si>
+  <si>
+    <t>EEDENI MAKSIMARKET</t>
+  </si>
+  <si>
+    <t>SPORTSDIRECT COM</t>
+  </si>
+  <si>
+    <t>GROSSI TOIDUKAUBAD JAR</t>
+  </si>
+  <si>
+    <t>Prisma Rapla</t>
+  </si>
+  <si>
+    <t>Maxima</t>
+  </si>
+  <si>
+    <t>RAPLA ESPAKI KAUPLUS</t>
+  </si>
+  <si>
+    <t>PARNU MAARAHVA POOD</t>
+  </si>
+  <si>
+    <t>Maxima EET690</t>
+  </si>
+  <si>
+    <t>RIMI</t>
+  </si>
+  <si>
+    <t>PAIDE SELVER</t>
+  </si>
+  <si>
+    <t>BOLT.EU</t>
   </si>
   <si>
     <t>Snabb</t>
   </si>
   <si>
-    <t>CIRCLE K UUEMOISA</t>
-  </si>
-  <si>
-    <t>CIRCLE K TARTU KVISSEN</t>
-  </si>
-  <si>
-    <t>CIRCLE K TARTU TURU</t>
-  </si>
-  <si>
-    <t>EuroPark</t>
-  </si>
-  <si>
-    <t>SEB</t>
-  </si>
-  <si>
-    <t>AS SEB</t>
-  </si>
-  <si>
-    <t>AS SEB PANK</t>
-  </si>
-  <si>
-    <t>RAHANDUSMINISTEERIUM</t>
-  </si>
-  <si>
-    <t>ALEXELA</t>
-  </si>
-  <si>
-    <t>OLEREX</t>
-  </si>
-  <si>
-    <t>ALEXELA KOERU</t>
-  </si>
-  <si>
-    <t>CITYALKO</t>
-  </si>
-  <si>
-    <t>MAGAZIIN</t>
-  </si>
-  <si>
-    <t>PAIDE MAKSIMARKET</t>
-  </si>
-  <si>
-    <t>MAKSIMARKET</t>
-  </si>
-  <si>
-    <t>GROSSI</t>
-  </si>
-  <si>
-    <t>SPORTSDIRECT</t>
-  </si>
-  <si>
-    <t>PRISMA</t>
-  </si>
-  <si>
-    <t>RAPLA ESPAKI</t>
-  </si>
-  <si>
-    <t>MAXIMA</t>
-  </si>
-  <si>
-    <t>GROSSI TOIDUKAUBAD</t>
-  </si>
-  <si>
-    <t>KASTANI KAUPLUS</t>
-  </si>
-  <si>
-    <t>KOERU KONSUM</t>
-  </si>
-  <si>
-    <t>Maxima</t>
-  </si>
-  <si>
-    <t>RIMI</t>
-  </si>
-  <si>
-    <t>LEMBITU KONSUM ISETEEN</t>
-  </si>
-  <si>
-    <t>A1000MARKET TARTU KALD</t>
-  </si>
-  <si>
-    <t>EVA NARSKA APTEEK KOER</t>
-  </si>
-  <si>
-    <t>KRABA</t>
-  </si>
-  <si>
-    <t>EEDENI MAKSIMARKET</t>
-  </si>
-  <si>
-    <t>RADEMAR LOUNAKESKUS</t>
-  </si>
-  <si>
-    <t>PIIRI POOD</t>
-  </si>
-  <si>
-    <t>UNEARI</t>
-  </si>
-  <si>
-    <t>VORUMAA TOIDUKESKUS</t>
-  </si>
-  <si>
-    <t>EEDENI KESKUSE CHOPSTI</t>
-  </si>
-  <si>
-    <t>KVISSENTALI KONSUM ISE</t>
-  </si>
-  <si>
-    <t>PAE KESKUS</t>
-  </si>
-  <si>
-    <t>LIDL</t>
-  </si>
-  <si>
-    <t>PETCITY EEDEN</t>
-  </si>
-  <si>
-    <t>PAIDE KAUBAMAJA</t>
-  </si>
-  <si>
-    <t>BOLT.EU</t>
-  </si>
-  <si>
-    <t>MAEKYLA</t>
-  </si>
-  <si>
-    <t>SUPERMERCATO</t>
-  </si>
-  <si>
-    <t>STEFFANI</t>
+    <t>MAEKYLA PIZZAKIOSK</t>
+  </si>
+  <si>
+    <t>RESTORAN APARAAT</t>
+  </si>
+  <si>
+    <t>MCDONALDS TARTU</t>
+  </si>
+  <si>
+    <t>CHOPSTICKS</t>
+  </si>
+  <si>
+    <t>STEFFANI PIZZARESTORAN</t>
   </si>
   <si>
     <t>MCDONALDS</t>
   </si>
   <si>
-    <t>COSE PREZIOSE</t>
-  </si>
-  <si>
-    <t>OHANA</t>
+    <t>HELLERI KOHVIK</t>
+  </si>
+  <si>
+    <t>LOUNAKESKUSE MAKSIMARK</t>
   </si>
   <si>
     <t>HESBURGER</t>
-  </si>
-  <si>
-    <t>HELLERI KOHVIK</t>
-  </si>
-  <si>
-    <t>CHOPSTICKS</t>
-  </si>
-  <si>
-    <t>MCDONALDS TARTU</t>
-  </si>
-  <si>
-    <t>RESTORAN APARAAT</t>
   </si>
   <si>
     <t>EUR</t>
@@ -847,7 +823,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E352"/>
+  <dimension ref="A1:E353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -875,13 +851,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>-111</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -892,30 +868,27 @@
         <v>45323</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>-78</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>45294</v>
-      </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>-14.37</v>
+        <v>-75.59999999999999</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -923,27 +896,30 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>-14.09</v>
+        <v>-54.5</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="2">
+        <v>45294</v>
+      </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6">
-        <v>-6.69</v>
+        <v>-14.37</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -951,30 +927,27 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>-2.19</v>
+        <v>-14.09</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
-        <v>45542</v>
-      </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>5.79</v>
+        <v>-9.99</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -982,27 +955,30 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>6.33</v>
+        <v>-6.33</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>5</v>
       </c>
+      <c r="B10" s="2">
+        <v>45542</v>
+      </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>9.99</v>
+        <v>-5.79</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1010,27 +986,27 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>54.5</v>
+        <v>-3.49</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>-120</v>
+        <v>-2.19</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1038,30 +1014,33 @@
         <v>6</v>
       </c>
       <c r="B13" s="2">
-        <v>45538</v>
+        <v>45482</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>-101.5</v>
+        <v>-550</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>6</v>
       </c>
+      <c r="B14" s="2">
+        <v>45482</v>
+      </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>-98.87</v>
+        <v>-550</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1069,30 +1048,27 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>-75.59999999999999</v>
+        <v>-500</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="2">
-        <v>45505</v>
-      </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>-65</v>
+        <v>-140</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1100,13 +1076,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>-35</v>
+        <v>-120</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1114,16 +1090,16 @@
         <v>6</v>
       </c>
       <c r="B18" s="2">
-        <v>45354</v>
+        <v>45538</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>-21.25</v>
+        <v>-101.5</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1131,13 +1107,13 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>-21</v>
+        <v>-98.87</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1145,16 +1121,16 @@
         <v>6</v>
       </c>
       <c r="B20" s="2">
-        <v>45415</v>
+        <v>45606</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>-17</v>
+        <v>-73.17</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1162,16 +1138,16 @@
         <v>6</v>
       </c>
       <c r="B21" s="2">
-        <v>45415</v>
+        <v>45505</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>-17</v>
+        <v>-65</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1179,16 +1155,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="2">
-        <v>45476</v>
+        <v>45419</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>-17</v>
+        <v>-45</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1196,33 +1172,30 @@
         <v>6</v>
       </c>
       <c r="B23" s="2">
-        <v>45476</v>
+        <v>45332</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>-17</v>
+        <v>-45</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="2">
-        <v>45447</v>
-      </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24">
-        <v>-15</v>
+        <v>-35</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1230,16 +1203,16 @@
         <v>6</v>
       </c>
       <c r="B25" s="2">
-        <v>45447</v>
+        <v>45329</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>-13.87</v>
+        <v>-34.95</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1247,13 +1220,13 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>-11.44</v>
+        <v>-27.92</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1261,16 +1234,16 @@
         <v>6</v>
       </c>
       <c r="B27" s="2">
-        <v>45324</v>
+        <v>45329</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
       </c>
       <c r="D27">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1278,30 +1251,33 @@
         <v>6</v>
       </c>
       <c r="B28" s="2">
-        <v>45477</v>
+        <v>45329</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>-9</v>
+        <v>-21.5</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>6</v>
       </c>
+      <c r="B29" s="2">
+        <v>45354</v>
+      </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>-8.699999999999999</v>
+        <v>-21.25</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1309,13 +1285,13 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>-8.5</v>
+        <v>-21</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1323,47 +1299,47 @@
         <v>6</v>
       </c>
       <c r="B31" s="2">
-        <v>45539</v>
+        <v>45508</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
       </c>
       <c r="D31">
-        <v>-8</v>
+        <v>-20.8</v>
       </c>
       <c r="E31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="2">
-        <v>45478</v>
-      </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>-7.8</v>
+        <v>-17.7</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>6</v>
       </c>
+      <c r="B33" s="2">
+        <v>45415</v>
+      </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D33">
-        <v>-6.4</v>
+        <v>-17</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1371,58 +1347,67 @@
         <v>6</v>
       </c>
       <c r="B34" s="2">
-        <v>45508</v>
+        <v>45415</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
       </c>
       <c r="D34">
-        <v>-6</v>
+        <v>-17</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>6</v>
       </c>
+      <c r="B35" s="2">
+        <v>45476</v>
+      </c>
       <c r="C35" t="s">
         <v>40</v>
       </c>
       <c r="D35">
-        <v>-5.59</v>
+        <v>-17</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>6</v>
       </c>
+      <c r="B36" s="2">
+        <v>45476</v>
+      </c>
       <c r="C36" t="s">
         <v>41</v>
       </c>
       <c r="D36">
-        <v>-5</v>
+        <v>-17</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>6</v>
       </c>
+      <c r="B37" s="2">
+        <v>45447</v>
+      </c>
       <c r="C37" t="s">
         <v>42</v>
       </c>
       <c r="D37">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1430,44 +1415,50 @@
         <v>6</v>
       </c>
       <c r="B38" s="2">
-        <v>45507</v>
+        <v>45508</v>
       </c>
       <c r="C38" t="s">
         <v>43</v>
       </c>
       <c r="D38">
-        <v>-4.39</v>
+        <v>-15</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>6</v>
       </c>
+      <c r="B39" s="2">
+        <v>45447</v>
+      </c>
       <c r="C39" t="s">
         <v>44</v>
       </c>
       <c r="D39">
-        <v>-4.18</v>
+        <v>-13.87</v>
       </c>
       <c r="E39" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>6</v>
       </c>
+      <c r="B40" s="2">
+        <v>45508</v>
+      </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D40">
-        <v>-3.18</v>
+        <v>-12.9</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1475,16 +1466,16 @@
         <v>6</v>
       </c>
       <c r="B41" s="2">
-        <v>45119</v>
+        <v>45510</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D41">
-        <v>-3.08</v>
+        <v>-12</v>
       </c>
       <c r="E41" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1492,13 +1483,13 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D42">
-        <v>-3</v>
+        <v>-11.44</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1506,44 +1497,50 @@
         <v>6</v>
       </c>
       <c r="B43" s="2">
-        <v>45539</v>
+        <v>45332</v>
       </c>
       <c r="C43" t="s">
         <v>46</v>
       </c>
       <c r="D43">
-        <v>-2.8</v>
+        <v>-11</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>6</v>
       </c>
+      <c r="B44" s="2">
+        <v>45324</v>
+      </c>
       <c r="C44" t="s">
         <v>47</v>
       </c>
       <c r="D44">
-        <v>-2.2</v>
+        <v>-10</v>
       </c>
       <c r="E44" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>6</v>
       </c>
+      <c r="B45" s="2">
+        <v>45477</v>
+      </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D45">
-        <v>-2.05</v>
+        <v>-9</v>
       </c>
       <c r="E45" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1551,41 +1548,47 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46">
-        <v>-1.98</v>
+        <v>-8.5</v>
       </c>
       <c r="E46" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>6</v>
       </c>
+      <c r="B47" s="2">
+        <v>45539</v>
+      </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47">
-        <v>-1.79</v>
+        <v>-8</v>
       </c>
       <c r="E47" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>6</v>
       </c>
+      <c r="B48" s="2">
+        <v>45478</v>
+      </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D48">
-        <v>-1.55</v>
+        <v>-7.8</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1593,27 +1596,30 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D49">
-        <v>-1.49</v>
+        <v>-6.69</v>
       </c>
       <c r="E49" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>6</v>
       </c>
+      <c r="B50" s="2">
+        <v>45450</v>
+      </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D50">
-        <v>-1.48</v>
+        <v>-6.54</v>
       </c>
       <c r="E50" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1621,13 +1627,13 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D51">
-        <v>-1.39</v>
+        <v>-6.4</v>
       </c>
       <c r="E51" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1635,16 +1641,16 @@
         <v>6</v>
       </c>
       <c r="B52" s="2">
-        <v>45326</v>
+        <v>45508</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D52">
-        <v>-1.33</v>
+        <v>-6</v>
       </c>
       <c r="E52" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1652,16 +1658,16 @@
         <v>6</v>
       </c>
       <c r="B53" s="2">
-        <v>45568</v>
+        <v>45510</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D53">
-        <v>-1.24</v>
+        <v>-6</v>
       </c>
       <c r="E53" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1669,13 +1675,13 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D54">
-        <v>-1.22</v>
+        <v>-5</v>
       </c>
       <c r="E54" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1683,13 +1689,13 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D55">
-        <v>-1.12</v>
+        <v>-5</v>
       </c>
       <c r="E55" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1697,58 +1703,67 @@
         <v>6</v>
       </c>
       <c r="B56" s="2">
-        <v>45539</v>
+        <v>45480</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D56">
-        <v>-1.1</v>
+        <v>-5</v>
       </c>
       <c r="E56" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>6</v>
       </c>
+      <c r="B57" s="2">
+        <v>45391</v>
+      </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D57">
-        <v>-1.06</v>
+        <v>-5</v>
       </c>
       <c r="E57" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>6</v>
       </c>
+      <c r="B58" s="2">
+        <v>45481</v>
+      </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D58">
-        <v>-1</v>
+        <v>-4.72</v>
       </c>
       <c r="E58" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>6</v>
       </c>
+      <c r="B59" s="2">
+        <v>45507</v>
+      </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D59">
-        <v>-1</v>
+        <v>-4.39</v>
       </c>
       <c r="E59" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1756,64 +1771,55 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D60">
-        <v>-1</v>
+        <v>-4.39</v>
       </c>
       <c r="E60" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="2">
-        <v>45600</v>
-      </c>
       <c r="C61" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D61">
-        <v>-1</v>
+        <v>-4.18</v>
       </c>
       <c r="E61" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="2">
-        <v>45600</v>
-      </c>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D62">
-        <v>-1</v>
+        <v>-3.88</v>
       </c>
       <c r="E62" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="2">
-        <v>45600</v>
-      </c>
       <c r="C63" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D63">
-        <v>-1</v>
+        <v>-3.18</v>
       </c>
       <c r="E63" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1821,16 +1827,16 @@
         <v>6</v>
       </c>
       <c r="B64" s="2">
-        <v>45600</v>
+        <v>45119</v>
       </c>
       <c r="C64" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D64">
-        <v>-1</v>
+        <v>-3.08</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1838,16 +1844,16 @@
         <v>6</v>
       </c>
       <c r="B65" s="2">
-        <v>45150</v>
+        <v>45508</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D65">
-        <v>-0.92</v>
+        <v>-3</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1855,41 +1861,47 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D66">
-        <v>-0.91</v>
+        <v>-3</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>6</v>
       </c>
+      <c r="B67" s="2">
+        <v>45539</v>
+      </c>
       <c r="C67" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D67">
-        <v>-0.88</v>
+        <v>-2.8</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>6</v>
       </c>
+      <c r="B68" s="2">
+        <v>45539</v>
+      </c>
       <c r="C68" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D68">
-        <v>-0.86</v>
+        <v>-2.59</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1897,13 +1909,13 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D69">
-        <v>-0.86</v>
+        <v>-2.2</v>
       </c>
       <c r="E69" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1911,30 +1923,27 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D70">
-        <v>-0.82</v>
+        <v>-2.05</v>
       </c>
       <c r="E70" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="2">
-        <v>45478</v>
-      </c>
       <c r="C71" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D71">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="E71" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1942,13 +1951,13 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D72">
-        <v>-0.76</v>
+        <v>-1.72</v>
       </c>
       <c r="E72" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1956,13 +1965,13 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D73">
-        <v>-0.76</v>
+        <v>-1.67</v>
       </c>
       <c r="E73" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1970,61 +1979,58 @@
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D74">
-        <v>-0.74</v>
+        <v>-1.55</v>
       </c>
       <c r="E74" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="2">
-        <v>45631</v>
-      </c>
       <c r="C75" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D75">
-        <v>-0.7</v>
+        <v>-1.52</v>
       </c>
       <c r="E75" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>6</v>
       </c>
+      <c r="B76" s="2">
+        <v>45358</v>
+      </c>
       <c r="C76" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D76">
-        <v>-0.68</v>
+        <v>-1.52</v>
       </c>
       <c r="E76" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="2">
-        <v>45181</v>
-      </c>
       <c r="C77" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D77">
-        <v>-0.65</v>
+        <v>-1.49</v>
       </c>
       <c r="E77" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2032,30 +2038,27 @@
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D78">
-        <v>-0.64</v>
+        <v>-1.48</v>
       </c>
       <c r="E78" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="2">
-        <v>45325</v>
-      </c>
       <c r="C79" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D79">
-        <v>-0.63</v>
+        <v>-1.39</v>
       </c>
       <c r="E79" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2063,16 +2066,16 @@
         <v>6</v>
       </c>
       <c r="B80" s="2">
-        <v>45538</v>
+        <v>45389</v>
       </c>
       <c r="C80" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D80">
-        <v>-0.61</v>
+        <v>-1.36</v>
       </c>
       <c r="E80" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2080,16 +2083,16 @@
         <v>6</v>
       </c>
       <c r="B81" s="2">
-        <v>45569</v>
+        <v>45326</v>
       </c>
       <c r="C81" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D81">
-        <v>-0.61</v>
+        <v>-1.33</v>
       </c>
       <c r="E81" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2097,27 +2100,30 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D82">
-        <v>-0.6</v>
+        <v>-1.26</v>
       </c>
       <c r="E82" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>6</v>
       </c>
+      <c r="B83" s="2">
+        <v>45568</v>
+      </c>
       <c r="C83" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D83">
-        <v>-0.58</v>
+        <v>-1.24</v>
       </c>
       <c r="E83" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2125,27 +2131,30 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D84">
-        <v>-0.55</v>
+        <v>-1.22</v>
       </c>
       <c r="E84" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>6</v>
       </c>
+      <c r="B85" s="2">
+        <v>45508</v>
+      </c>
       <c r="C85" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D85">
-        <v>-0.52</v>
+        <v>-1.2</v>
       </c>
       <c r="E85" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2153,13 +2162,13 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D86">
-        <v>-0.5</v>
+        <v>-1.15</v>
       </c>
       <c r="E86" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2167,27 +2176,30 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D87">
-        <v>-0.48</v>
+        <v>-1.12</v>
       </c>
       <c r="E87" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>6</v>
       </c>
+      <c r="B88" s="2">
+        <v>45539</v>
+      </c>
       <c r="C88" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D88">
-        <v>-0.46</v>
+        <v>-1.1</v>
       </c>
       <c r="E88" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2195,16 +2207,16 @@
         <v>6</v>
       </c>
       <c r="B89" s="2">
-        <v>45414</v>
+        <v>45391</v>
       </c>
       <c r="C89" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D89">
-        <v>-0.39</v>
+        <v>-1.09</v>
       </c>
       <c r="E89" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2212,47 +2224,41 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D90">
-        <v>-0.36</v>
+        <v>-1.07</v>
       </c>
       <c r="E90" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="2">
-        <v>45448</v>
-      </c>
       <c r="C91" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D91">
-        <v>-0.36</v>
+        <v>-1.06</v>
       </c>
       <c r="E91" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="2">
-        <v>45600</v>
-      </c>
       <c r="C92" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D92">
-        <v>-0.33</v>
+        <v>-1</v>
       </c>
       <c r="E92" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2260,13 +2266,13 @@
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D93">
-        <v>-0.33</v>
+        <v>-1</v>
       </c>
       <c r="E93" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2274,69 +2280,81 @@
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D94">
-        <v>-0.31</v>
+        <v>-1</v>
       </c>
       <c r="E94" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>6</v>
       </c>
+      <c r="B95" s="2">
+        <v>45600</v>
+      </c>
       <c r="C95" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D95">
-        <v>-0.3</v>
+        <v>-1</v>
       </c>
       <c r="E95" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>6</v>
       </c>
+      <c r="B96" s="2">
+        <v>45600</v>
+      </c>
       <c r="C96" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D96">
-        <v>-0.27</v>
+        <v>-1</v>
       </c>
       <c r="E96" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>6</v>
       </c>
+      <c r="B97" s="2">
+        <v>45600</v>
+      </c>
       <c r="C97" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D97">
-        <v>-0.21</v>
+        <v>-1</v>
       </c>
       <c r="E97" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>6</v>
       </c>
+      <c r="B98" s="2">
+        <v>45600</v>
+      </c>
       <c r="C98" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D98">
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="E98" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2344,13 +2362,13 @@
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D99">
-        <v>-0.13</v>
+        <v>-0.99</v>
       </c>
       <c r="E99" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2358,16 +2376,16 @@
         <v>6</v>
       </c>
       <c r="B100" s="2">
-        <v>45477</v>
+        <v>45360</v>
       </c>
       <c r="C100" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D100">
-        <v>-0.13</v>
+        <v>-0.98</v>
       </c>
       <c r="E100" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2375,16 +2393,16 @@
         <v>6</v>
       </c>
       <c r="B101" s="2">
-        <v>45447</v>
+        <v>45514</v>
       </c>
       <c r="C101" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D101">
-        <v>-0.11</v>
+        <v>-0.98</v>
       </c>
       <c r="E101" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2392,44 +2410,44 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D102">
-        <v>-0.08</v>
+        <v>-0.95</v>
       </c>
       <c r="E102" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>6</v>
       </c>
-      <c r="B103" s="2">
-        <v>45384</v>
-      </c>
       <c r="C103" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D103">
-        <v>-0.01</v>
+        <v>-0.93</v>
       </c>
       <c r="E103" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>6</v>
       </c>
+      <c r="B104" s="2">
+        <v>45150</v>
+      </c>
       <c r="C104" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D104">
-        <v>0.01</v>
+        <v>-0.92</v>
       </c>
       <c r="E104" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2437,30 +2455,27 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D105">
-        <v>0.01</v>
+        <v>-0.91</v>
       </c>
       <c r="E105" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>6</v>
       </c>
-      <c r="B106" s="2">
-        <v>45331</v>
-      </c>
       <c r="C106" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D106">
-        <v>0.01</v>
+        <v>-0.91</v>
       </c>
       <c r="E106" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2468,44 +2483,44 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D107">
-        <v>0.02</v>
+        <v>-0.88</v>
       </c>
       <c r="E107" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>6</v>
       </c>
+      <c r="B108" s="2">
+        <v>45333</v>
+      </c>
       <c r="C108" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D108">
-        <v>0.02</v>
+        <v>-0.87</v>
       </c>
       <c r="E108" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>6</v>
       </c>
-      <c r="B109" s="2">
-        <v>45545</v>
-      </c>
       <c r="C109" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D109">
-        <v>0.02</v>
+        <v>-0.86</v>
       </c>
       <c r="E109" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2513,78 +2528,72 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D110">
-        <v>0.04</v>
+        <v>-0.86</v>
       </c>
       <c r="E110" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="2">
-        <v>45636</v>
-      </c>
       <c r="C111" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D111">
-        <v>0.05</v>
+        <v>-0.82</v>
       </c>
       <c r="E111" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>6</v>
       </c>
-      <c r="B112" s="2">
-        <v>45421</v>
-      </c>
       <c r="C112" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D112">
-        <v>0.08</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="E112" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>6</v>
       </c>
+      <c r="B113" s="2">
+        <v>45478</v>
+      </c>
       <c r="C113" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D113">
-        <v>0.09</v>
+        <v>-0.8</v>
       </c>
       <c r="E113" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>6</v>
       </c>
-      <c r="B114" s="2">
-        <v>45605</v>
-      </c>
       <c r="C114" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D114">
-        <v>0.1</v>
+        <v>-0.77</v>
       </c>
       <c r="E114" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2592,13 +2601,13 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D115">
-        <v>0.12</v>
+        <v>-0.76</v>
       </c>
       <c r="E115" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2606,13 +2615,13 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D116">
-        <v>0.13</v>
+        <v>-0.76</v>
       </c>
       <c r="E116" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2620,13 +2629,13 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D117">
-        <v>0.15</v>
+        <v>-0.74</v>
       </c>
       <c r="E117" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2634,47 +2643,47 @@
         <v>6</v>
       </c>
       <c r="B118" s="2">
-        <v>45542</v>
+        <v>45631</v>
       </c>
       <c r="C118" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D118">
-        <v>0.19</v>
+        <v>-0.7</v>
       </c>
       <c r="E118" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>6</v>
       </c>
-      <c r="B119" s="2">
-        <v>45572</v>
-      </c>
       <c r="C119" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D119">
-        <v>0.21</v>
+        <v>-0.7</v>
       </c>
       <c r="E119" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>6</v>
       </c>
+      <c r="B120" s="2">
+        <v>45635</v>
+      </c>
       <c r="C120" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D120">
-        <v>0.24</v>
+        <v>-0.7</v>
       </c>
       <c r="E120" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2682,47 +2691,41 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D121">
-        <v>0.26</v>
+        <v>-0.68</v>
       </c>
       <c r="E121" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>6</v>
       </c>
-      <c r="B122" s="2">
-        <v>45544</v>
-      </c>
       <c r="C122" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D122">
-        <v>0.27</v>
+        <v>-0.68</v>
       </c>
       <c r="E122" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>6</v>
       </c>
-      <c r="B123" s="2">
-        <v>45632</v>
-      </c>
       <c r="C123" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D123">
-        <v>0.28</v>
+        <v>-0.67</v>
       </c>
       <c r="E123" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2730,47 +2733,47 @@
         <v>6</v>
       </c>
       <c r="B124" s="2">
-        <v>45512</v>
+        <v>45181</v>
       </c>
       <c r="C124" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D124">
-        <v>0.28</v>
+        <v>-0.65</v>
       </c>
       <c r="E124" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>6</v>
       </c>
-      <c r="B125" s="2">
-        <v>45575</v>
-      </c>
       <c r="C125" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D125">
-        <v>0.3</v>
+        <v>-0.64</v>
       </c>
       <c r="E125" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>6</v>
       </c>
+      <c r="B126" s="2">
+        <v>45325</v>
+      </c>
       <c r="C126" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D126">
-        <v>0.32</v>
+        <v>-0.63</v>
       </c>
       <c r="E126" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2778,16 +2781,16 @@
         <v>6</v>
       </c>
       <c r="B127" s="2">
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="C127" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D127">
-        <v>0.36</v>
+        <v>-0.63</v>
       </c>
       <c r="E127" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2795,13 +2798,13 @@
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D128">
-        <v>0.37</v>
+        <v>-0.62</v>
       </c>
       <c r="E128" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2809,16 +2812,16 @@
         <v>6</v>
       </c>
       <c r="B129" s="2">
-        <v>45573</v>
+        <v>45538</v>
       </c>
       <c r="C129" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D129">
-        <v>0.38</v>
+        <v>-0.61</v>
       </c>
       <c r="E129" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2826,33 +2829,30 @@
         <v>6</v>
       </c>
       <c r="B130" s="2">
-        <v>45360</v>
+        <v>45569</v>
       </c>
       <c r="C130" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D130">
-        <v>0.38</v>
+        <v>-0.61</v>
       </c>
       <c r="E130" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>6</v>
       </c>
-      <c r="B131" s="2">
-        <v>45510</v>
-      </c>
       <c r="C131" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D131">
-        <v>0.39</v>
+        <v>-0.6</v>
       </c>
       <c r="E131" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2860,13 +2860,13 @@
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D132">
-        <v>0.4</v>
+        <v>-0.58</v>
       </c>
       <c r="E132" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2874,13 +2874,13 @@
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D133">
-        <v>0.42</v>
+        <v>-0.55</v>
       </c>
       <c r="E133" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2888,47 +2888,41 @@
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D134">
-        <v>0.44</v>
+        <v>-0.55</v>
       </c>
       <c r="E134" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>6</v>
       </c>
-      <c r="B135" s="2">
-        <v>45480</v>
-      </c>
       <c r="C135" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D135">
-        <v>0.46</v>
+        <v>-0.52</v>
       </c>
       <c r="E135" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>6</v>
       </c>
-      <c r="B136" s="2">
-        <v>45361</v>
-      </c>
       <c r="C136" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D136">
-        <v>0.46</v>
+        <v>-0.52</v>
       </c>
       <c r="E136" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2936,33 +2930,30 @@
         <v>6</v>
       </c>
       <c r="B137" s="2">
-        <v>45574</v>
+        <v>45300</v>
       </c>
       <c r="C137" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D137">
-        <v>0.49</v>
+        <v>-0.51</v>
       </c>
       <c r="E137" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>6</v>
       </c>
-      <c r="B138" s="2">
-        <v>45393</v>
-      </c>
       <c r="C138" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D138">
-        <v>0.49</v>
+        <v>-0.5</v>
       </c>
       <c r="E138" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2973,13 +2964,13 @@
         <v>45450</v>
       </c>
       <c r="C139" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D139">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="E139" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2987,30 +2978,33 @@
         <v>6</v>
       </c>
       <c r="B140" s="2">
-        <v>45300</v>
+        <v>45574</v>
       </c>
       <c r="C140" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D140">
-        <v>0.51</v>
+        <v>-0.49</v>
       </c>
       <c r="E140" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>6</v>
       </c>
+      <c r="B141" s="2">
+        <v>45393</v>
+      </c>
       <c r="C141" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D141">
-        <v>0.52</v>
+        <v>-0.49</v>
       </c>
       <c r="E141" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3018,13 +3012,13 @@
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D142">
-        <v>0.55</v>
+        <v>-0.48</v>
       </c>
       <c r="E142" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3032,13 +3026,13 @@
         <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D143">
-        <v>0.62</v>
+        <v>-0.46</v>
       </c>
       <c r="E143" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3046,30 +3040,33 @@
         <v>6</v>
       </c>
       <c r="B144" s="2">
-        <v>45514</v>
+        <v>45480</v>
       </c>
       <c r="C144" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D144">
-        <v>0.63</v>
+        <v>-0.46</v>
       </c>
       <c r="E144" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>6</v>
       </c>
+      <c r="B145" s="2">
+        <v>45361</v>
+      </c>
       <c r="C145" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D145">
-        <v>0.67</v>
+        <v>-0.46</v>
       </c>
       <c r="E145" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3077,13 +3074,13 @@
         <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D146">
-        <v>0.68</v>
+        <v>-0.44</v>
       </c>
       <c r="E146" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3091,58 +3088,61 @@
         <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D147">
-        <v>0.7</v>
+        <v>-0.42</v>
       </c>
       <c r="E147" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>6</v>
       </c>
-      <c r="B148" s="2">
-        <v>45635</v>
-      </c>
       <c r="C148" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D148">
-        <v>0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="E148" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>6</v>
       </c>
+      <c r="B149" s="2">
+        <v>45414</v>
+      </c>
       <c r="C149" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D149">
-        <v>0.77</v>
+        <v>-0.39</v>
       </c>
       <c r="E149" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>6</v>
       </c>
+      <c r="B150" s="2">
+        <v>45510</v>
+      </c>
       <c r="C150" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D150">
-        <v>0.8100000000000001</v>
+        <v>-0.39</v>
       </c>
       <c r="E150" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3150,30 +3150,33 @@
         <v>6</v>
       </c>
       <c r="B151" s="2">
-        <v>45333</v>
+        <v>45573</v>
       </c>
       <c r="C151" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D151">
-        <v>0.87</v>
+        <v>-0.38</v>
       </c>
       <c r="E151" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>6</v>
       </c>
+      <c r="B152" s="2">
+        <v>45360</v>
+      </c>
       <c r="C152" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D152">
-        <v>0.91</v>
+        <v>-0.38</v>
       </c>
       <c r="E152" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3181,44 +3184,44 @@
         <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D153">
-        <v>0.93</v>
+        <v>-0.37</v>
       </c>
       <c r="E153" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>6</v>
       </c>
+      <c r="B154" s="2">
+        <v>45447</v>
+      </c>
       <c r="C154" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D154">
-        <v>0.95</v>
+        <v>-0.36</v>
       </c>
       <c r="E154" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>6</v>
       </c>
-      <c r="B155" s="2">
-        <v>45360</v>
-      </c>
       <c r="C155" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D155">
-        <v>0.98</v>
+        <v>-0.36</v>
       </c>
       <c r="E155" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3226,30 +3229,33 @@
         <v>6</v>
       </c>
       <c r="B156" s="2">
-        <v>45514</v>
+        <v>45448</v>
       </c>
       <c r="C156" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D156">
-        <v>0.98</v>
+        <v>-0.36</v>
       </c>
       <c r="E156" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>6</v>
       </c>
+      <c r="B157" s="2">
+        <v>45511</v>
+      </c>
       <c r="C157" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D157">
-        <v>1.07</v>
+        <v>-0.36</v>
       </c>
       <c r="E157" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3257,16 +3263,16 @@
         <v>6</v>
       </c>
       <c r="B158" s="2">
-        <v>45391</v>
+        <v>45600</v>
       </c>
       <c r="C158" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D158">
-        <v>1.09</v>
+        <v>-0.33</v>
       </c>
       <c r="E158" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3274,13 +3280,13 @@
         <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D159">
-        <v>1.15</v>
+        <v>-0.33</v>
       </c>
       <c r="E159" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3288,30 +3294,27 @@
         <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D160">
-        <v>1.26</v>
+        <v>-0.32</v>
       </c>
       <c r="E160" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>6</v>
       </c>
-      <c r="B161" s="2">
-        <v>45389</v>
-      </c>
       <c r="C161" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D161">
-        <v>1.36</v>
+        <v>-0.31</v>
       </c>
       <c r="E161" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3319,13 +3322,13 @@
         <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D162">
-        <v>1.52</v>
+        <v>-0.3</v>
       </c>
       <c r="E162" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3333,44 +3336,50 @@
         <v>6</v>
       </c>
       <c r="B163" s="2">
-        <v>45358</v>
+        <v>45575</v>
       </c>
       <c r="C163" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D163">
-        <v>1.52</v>
+        <v>-0.3</v>
       </c>
       <c r="E163" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>6</v>
       </c>
+      <c r="B164" s="2">
+        <v>45632</v>
+      </c>
       <c r="C164" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D164">
-        <v>1.67</v>
+        <v>-0.28</v>
       </c>
       <c r="E164" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>6</v>
       </c>
+      <c r="B165" s="2">
+        <v>45512</v>
+      </c>
       <c r="C165" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D165">
-        <v>1.72</v>
+        <v>-0.28</v>
       </c>
       <c r="E165" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3378,27 +3387,30 @@
         <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>-0.27</v>
       </c>
       <c r="E166" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>6</v>
       </c>
+      <c r="B167" s="2">
+        <v>45544</v>
+      </c>
       <c r="C167" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D167">
-        <v>3.49</v>
+        <v>-0.27</v>
       </c>
       <c r="E167" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3406,47 +3418,41 @@
         <v>6</v>
       </c>
       <c r="C168" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D168">
-        <v>4.39</v>
+        <v>-0.26</v>
       </c>
       <c r="E168" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>6</v>
       </c>
-      <c r="B169" s="2">
-        <v>45358</v>
-      </c>
       <c r="C169" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D169">
-        <v>4.6</v>
+        <v>-0.24</v>
       </c>
       <c r="E169" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>6</v>
       </c>
-      <c r="B170" s="2">
-        <v>45480</v>
-      </c>
       <c r="C170" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D170">
-        <v>5</v>
+        <v>-0.21</v>
       </c>
       <c r="E170" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3454,33 +3460,30 @@
         <v>6</v>
       </c>
       <c r="B171" s="2">
-        <v>45391</v>
+        <v>45572</v>
       </c>
       <c r="C171" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D171">
-        <v>5</v>
+        <v>-0.21</v>
       </c>
       <c r="E171" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>6</v>
       </c>
-      <c r="B172" s="2">
-        <v>45510</v>
-      </c>
       <c r="C172" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D172">
-        <v>6</v>
+        <v>-0.2</v>
       </c>
       <c r="E172" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3488,33 +3491,30 @@
         <v>6</v>
       </c>
       <c r="B173" s="2">
-        <v>45332</v>
+        <v>45542</v>
       </c>
       <c r="C173" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D173">
-        <v>11</v>
+        <v>-0.19</v>
       </c>
       <c r="E173" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>6</v>
       </c>
-      <c r="B174" s="2">
-        <v>45510</v>
-      </c>
       <c r="C174" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D174">
-        <v>12</v>
+        <v>-0.15</v>
       </c>
       <c r="E174" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3522,13 +3522,13 @@
         <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="D175">
-        <v>17.7</v>
+        <v>-0.13</v>
       </c>
       <c r="E175" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3536,50 +3536,44 @@
         <v>6</v>
       </c>
       <c r="B176" s="2">
-        <v>45329</v>
+        <v>45477</v>
       </c>
       <c r="C176" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D176">
-        <v>21.5</v>
+        <v>-0.13</v>
       </c>
       <c r="E176" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>6</v>
       </c>
-      <c r="B177" s="2">
-        <v>45329</v>
-      </c>
       <c r="C177" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D177">
-        <v>25</v>
+        <v>-0.13</v>
       </c>
       <c r="E177" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>6</v>
       </c>
-      <c r="B178" s="2">
-        <v>45329</v>
-      </c>
       <c r="C178" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D178">
-        <v>34.95</v>
+        <v>-0.12</v>
       </c>
       <c r="E178" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3587,33 +3581,30 @@
         <v>6</v>
       </c>
       <c r="B179" s="2">
-        <v>45419</v>
+        <v>45605</v>
       </c>
       <c r="C179" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D179">
-        <v>45</v>
+        <v>-0.1</v>
       </c>
       <c r="E179" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>6</v>
       </c>
-      <c r="B180" s="2">
-        <v>45606</v>
-      </c>
       <c r="C180" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D180">
-        <v>73.17</v>
+        <v>-0.09</v>
       </c>
       <c r="E180" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3621,75 +3612,75 @@
         <v>6</v>
       </c>
       <c r="C181" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D181">
-        <v>140</v>
+        <v>-0.08</v>
       </c>
       <c r="E181" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>6</v>
       </c>
+      <c r="B182" s="2">
+        <v>45421</v>
+      </c>
       <c r="C182" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D182">
-        <v>140</v>
+        <v>-0.08</v>
       </c>
       <c r="E182" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>6</v>
       </c>
+      <c r="B183" s="2">
+        <v>45636</v>
+      </c>
       <c r="C183" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D183">
-        <v>500</v>
+        <v>-0.05</v>
       </c>
       <c r="E183" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>6</v>
       </c>
-      <c r="B184" s="2">
-        <v>45482</v>
-      </c>
       <c r="C184" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D184">
-        <v>550</v>
+        <v>-0.04</v>
       </c>
       <c r="E184" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>6</v>
       </c>
-      <c r="B185" s="2">
-        <v>45482</v>
-      </c>
       <c r="C185" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D185">
-        <v>550</v>
+        <v>-0.02</v>
       </c>
       <c r="E185" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3697,2580 +3688,2573 @@
         <v>6</v>
       </c>
       <c r="C186" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="D186">
-        <v>595.1900000000001</v>
+        <v>-0.02</v>
       </c>
       <c r="E186" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B187" s="2">
-        <v>45481</v>
+        <v>45545</v>
       </c>
       <c r="C187" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="D187">
-        <v>4.72</v>
+        <v>-0.02</v>
       </c>
       <c r="E187" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B188" s="2">
-        <v>45358</v>
+        <v>45384</v>
       </c>
       <c r="C188" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="D188">
-        <v>0.95</v>
+        <v>-0.01</v>
       </c>
       <c r="E188" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="D189">
-        <v>1.65</v>
+        <v>-0.01</v>
       </c>
       <c r="E189" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="D190">
-        <v>1.65</v>
+        <v>-0.01</v>
       </c>
       <c r="E190" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B191" s="2">
-        <v>45300</v>
+        <v>45331</v>
       </c>
       <c r="C191" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="D191">
-        <v>2.99</v>
+        <v>-0.01</v>
       </c>
       <c r="E191" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
-        <v>76</v>
-      </c>
-      <c r="D192">
-        <v>3.25</v>
-      </c>
-      <c r="E192" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>8</v>
-      </c>
-      <c r="B193" s="2">
-        <v>45605</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D193">
-        <v>3.3</v>
+        <v>-140</v>
       </c>
       <c r="E193" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B194" s="2">
+        <v>45570</v>
       </c>
       <c r="C194" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D194">
-        <v>12.08</v>
+        <v>-1.5</v>
       </c>
       <c r="E194" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D195">
-        <v>12.38</v>
+        <v>-1</v>
       </c>
       <c r="E195" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>9</v>
-      </c>
-      <c r="B196" s="2">
-        <v>45570</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D196">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="E196" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D197">
         <v>-1</v>
       </c>
       <c r="E197" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D198">
         <v>-1</v>
       </c>
       <c r="E198" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D199">
-        <v>-1</v>
+        <v>-0.38</v>
       </c>
       <c r="E199" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D200">
-        <v>-1</v>
+        <v>-0.38</v>
       </c>
       <c r="E200" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B201" s="2">
+        <v>45324</v>
       </c>
       <c r="C201" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D201">
         <v>-0.38</v>
       </c>
       <c r="E201" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B202" s="2">
+        <v>45447</v>
       </c>
       <c r="C202" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D202">
         <v>-0.38</v>
       </c>
       <c r="E202" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B203" s="2">
-        <v>45324</v>
+        <v>45477</v>
       </c>
       <c r="C203" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D203">
         <v>-0.38</v>
       </c>
       <c r="E203" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B204" s="2">
-        <v>45447</v>
+        <v>45505</v>
       </c>
       <c r="C204" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D204">
-        <v>-0.38</v>
+        <v>-0.16</v>
       </c>
       <c r="E204" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B205" s="2">
-        <v>45477</v>
+        <v>45354</v>
       </c>
       <c r="C205" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D205">
-        <v>-0.38</v>
+        <v>-0.16</v>
       </c>
       <c r="E205" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>9</v>
-      </c>
-      <c r="B206" s="2">
-        <v>45505</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D206">
         <v>-0.16</v>
       </c>
       <c r="E206" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>9</v>
-      </c>
-      <c r="B207" s="2">
-        <v>45354</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D207">
         <v>-0.16</v>
       </c>
       <c r="E207" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B208" s="2">
+        <v>45293</v>
       </c>
       <c r="C208" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D208">
-        <v>-0.16</v>
+        <v>-0.05</v>
       </c>
       <c r="E208" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B209" s="2">
+        <v>45296</v>
       </c>
       <c r="C209" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D209">
-        <v>-0.16</v>
+        <v>-0.05</v>
       </c>
       <c r="E209" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B210" s="2">
-        <v>45293</v>
+        <v>45298</v>
       </c>
       <c r="C210" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D210">
         <v>-0.05</v>
       </c>
       <c r="E210" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B211" s="2">
-        <v>45296</v>
+        <v>45300</v>
       </c>
       <c r="C211" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D211">
         <v>-0.05</v>
       </c>
       <c r="E211" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B212" s="2">
         <v>45294</v>
       </c>
       <c r="C212" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D212">
         <v>-0.04</v>
       </c>
       <c r="E212" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B213" s="2">
         <v>45295</v>
       </c>
       <c r="C213" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D213">
         <v>-0.04</v>
       </c>
       <c r="E213" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B214" s="2">
-        <v>45292</v>
+        <v>45297</v>
       </c>
       <c r="C214" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D214">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="E214" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B215" s="2">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="C215" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D215">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="E215" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B216" s="2">
-        <v>45294</v>
+        <v>45299</v>
       </c>
       <c r="C216" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D216">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="E216" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B217" s="2">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="C217" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D217">
         <v>-0.01</v>
       </c>
       <c r="E217" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B218" s="2">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="C218" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D218">
         <v>-0.01</v>
       </c>
       <c r="E218" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B219" s="2">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="C219" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D219">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="E219" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B220" s="2">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="C220" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D220">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="E220" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B221" s="2">
-        <v>45300</v>
+        <v>45297</v>
       </c>
       <c r="C221" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D221">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="E221" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B222" s="2">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="C222" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D222">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="E222" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B223" s="2">
-        <v>45297</v>
+        <v>45300</v>
       </c>
       <c r="C223" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D223">
-        <v>0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="E223" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>9</v>
-      </c>
-      <c r="B224" s="2">
-        <v>45298</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D224">
-        <v>0.05</v>
+        <v>-71.5</v>
       </c>
       <c r="E224" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>9</v>
-      </c>
-      <c r="B225" s="2">
-        <v>45300</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D225">
-        <v>0.05</v>
+        <v>-58.92</v>
       </c>
       <c r="E225" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>9</v>
-      </c>
-      <c r="B226" s="2">
-        <v>45332</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D226">
-        <v>45</v>
+        <v>-58.11</v>
       </c>
       <c r="E226" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D227">
-        <v>-58.92</v>
+        <v>-57.09</v>
       </c>
       <c r="E227" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B228" s="2">
+        <v>45353</v>
       </c>
       <c r="C228" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D228">
-        <v>-57.09</v>
+        <v>-49.99</v>
       </c>
       <c r="E228" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B229" s="2">
-        <v>45353</v>
+        <v>45543</v>
       </c>
       <c r="C229" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D229">
-        <v>-49.99</v>
+        <v>-13.63</v>
       </c>
       <c r="E229" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B230" s="2">
-        <v>45448</v>
+        <v>45601</v>
       </c>
       <c r="C230" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D230">
-        <v>-19.2</v>
+        <v>-13.3</v>
       </c>
       <c r="E230" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>10</v>
-      </c>
-      <c r="B231" s="2">
-        <v>45601</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D231">
-        <v>-13.3</v>
+        <v>-12.38</v>
       </c>
       <c r="E231" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>10</v>
-      </c>
-      <c r="B232" s="2">
-        <v>45417</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D232">
-        <v>-9.699999999999999</v>
+        <v>-12.08</v>
       </c>
       <c r="E232" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B233" s="2">
-        <v>45543</v>
+        <v>45358</v>
       </c>
       <c r="C233" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D233">
-        <v>13.63</v>
+        <v>-4.6</v>
       </c>
       <c r="E233" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B234" s="2">
+        <v>45605</v>
       </c>
       <c r="C234" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D234">
-        <v>58.11</v>
+        <v>-3.3</v>
       </c>
       <c r="E234" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D235">
-        <v>71.5</v>
+        <v>-3.25</v>
       </c>
       <c r="E235" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B236" s="2">
+        <v>45300</v>
       </c>
       <c r="C236" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D236">
-        <v>-102.57</v>
+        <v>-2.99</v>
       </c>
       <c r="E236" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D237">
-        <v>-39.54</v>
+        <v>-1.65</v>
       </c>
       <c r="E237" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D238">
-        <v>-29.32</v>
+        <v>-1.65</v>
       </c>
       <c r="E238" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C239" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="D239">
-        <v>-29.01</v>
+        <v>-102.57</v>
       </c>
       <c r="E239" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B240" s="2">
+        <v>45419</v>
       </c>
       <c r="C240" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D240">
-        <v>-27.92</v>
+        <v>-59.9</v>
       </c>
       <c r="E240" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B241" s="2">
+        <v>45331</v>
       </c>
       <c r="C241" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D241">
-        <v>-27.17</v>
+        <v>-44.62</v>
       </c>
       <c r="E241" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B242" s="2">
-        <v>45150</v>
+        <v>45329</v>
       </c>
       <c r="C242" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D242">
-        <v>-26.35</v>
+        <v>-41.21</v>
       </c>
       <c r="E242" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D243">
-        <v>-24.66</v>
+        <v>-39.54</v>
       </c>
       <c r="E243" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C244" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D244">
-        <v>-23.73</v>
+        <v>-29.32</v>
       </c>
       <c r="E244" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D245">
-        <v>-20.97</v>
+        <v>-29.01</v>
       </c>
       <c r="E245" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D246">
-        <v>-17.26</v>
+        <v>-28.98</v>
       </c>
       <c r="E246" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D247">
-        <v>-13.12</v>
+        <v>-27.17</v>
       </c>
       <c r="E247" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B248" s="2">
-        <v>45295</v>
+        <v>45150</v>
       </c>
       <c r="C248" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D248">
-        <v>-12.2</v>
+        <v>-26.35</v>
       </c>
       <c r="E248" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B249" s="2">
-        <v>45631</v>
+        <v>45511</v>
       </c>
       <c r="C249" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D249">
-        <v>-9.5</v>
+        <v>-25.88</v>
       </c>
       <c r="E249" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>11</v>
-      </c>
-      <c r="B250" s="2">
-        <v>45295</v>
+        <v>9</v>
       </c>
       <c r="C250" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D250">
-        <v>-9.470000000000001</v>
+        <v>-24.99</v>
       </c>
       <c r="E250" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C251" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D251">
-        <v>-8.42</v>
+        <v>-24.66</v>
       </c>
       <c r="E251" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>11</v>
-      </c>
-      <c r="B252" s="2">
-        <v>45416</v>
+        <v>9</v>
       </c>
       <c r="C252" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="D252">
-        <v>-6.89</v>
+        <v>-23.83</v>
       </c>
       <c r="E252" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C253" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D253">
-        <v>-6.42</v>
+        <v>-23.73</v>
       </c>
       <c r="E253" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B254" s="2">
-        <v>45569</v>
+        <v>45634</v>
       </c>
       <c r="C254" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D254">
-        <v>-5.67</v>
+        <v>-22.6</v>
       </c>
       <c r="E254" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C255" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D255">
-        <v>-5.67</v>
+        <v>-20.97</v>
       </c>
       <c r="E255" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C256" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D256">
-        <v>-5.33</v>
+        <v>-20.8</v>
       </c>
       <c r="E256" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B257" s="2">
+        <v>45511</v>
       </c>
       <c r="C257" t="s">
         <v>89</v>
       </c>
       <c r="D257">
-        <v>-5.22</v>
+        <v>-19.93</v>
       </c>
       <c r="E257" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B258" s="2">
+        <v>45329</v>
       </c>
       <c r="C258" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D258">
-        <v>-5.2</v>
+        <v>-19.82</v>
       </c>
       <c r="E258" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B259" s="2">
+        <v>45513</v>
       </c>
       <c r="C259" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D259">
-        <v>-4.99</v>
+        <v>-17.73</v>
       </c>
       <c r="E259" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C260" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D260">
-        <v>-4.36</v>
+        <v>-17.56</v>
       </c>
       <c r="E260" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C261" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D261">
-        <v>-4.24</v>
+        <v>-17.26</v>
       </c>
       <c r="E261" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C262" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D262">
-        <v>-4.19</v>
+        <v>-17.21</v>
       </c>
       <c r="E262" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B263" s="2">
+        <v>45544</v>
       </c>
       <c r="C263" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D263">
-        <v>-4.18</v>
+        <v>-16.6</v>
       </c>
       <c r="E263" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C264" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D264">
-        <v>-4.14</v>
+        <v>-16.38</v>
       </c>
       <c r="E264" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B265" s="2">
-        <v>45417</v>
+        <v>45632</v>
       </c>
       <c r="C265" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D265">
-        <v>-3.94</v>
+        <v>-15.33</v>
       </c>
       <c r="E265" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C266" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="D266">
-        <v>-3.64</v>
+        <v>-13.65</v>
       </c>
       <c r="E266" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C267" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D267">
-        <v>-3.48</v>
+        <v>-13.12</v>
       </c>
       <c r="E267" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>11</v>
-      </c>
-      <c r="B268" s="2">
-        <v>45538</v>
+        <v>9</v>
       </c>
       <c r="C268" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D268">
-        <v>-2.26</v>
+        <v>-12.99</v>
       </c>
       <c r="E268" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C269" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D269">
-        <v>-2.24</v>
+        <v>-12.91</v>
       </c>
       <c r="E269" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B270" s="2">
+        <v>45544</v>
       </c>
       <c r="C270" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D270">
-        <v>-1.18</v>
+        <v>-12.91</v>
       </c>
       <c r="E270" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B271" s="2">
-        <v>45384</v>
+        <v>45295</v>
       </c>
       <c r="C271" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="D271">
-        <v>-0.61</v>
+        <v>-12.2</v>
       </c>
       <c r="E271" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B272" s="2">
+        <v>45480</v>
       </c>
       <c r="C272" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D272">
-        <v>0.68</v>
+        <v>-11.64</v>
       </c>
       <c r="E272" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B273" s="2">
+        <v>45419</v>
       </c>
       <c r="C273" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D273">
-        <v>0.99</v>
+        <v>-11.6</v>
       </c>
       <c r="E273" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C274" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D274">
-        <v>1.09</v>
+        <v>-11</v>
       </c>
       <c r="E274" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>11</v>
-      </c>
-      <c r="B275" s="2">
-        <v>45632</v>
+        <v>9</v>
       </c>
       <c r="C275" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D275">
-        <v>1.15</v>
+        <v>-9.98</v>
       </c>
       <c r="E275" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>11</v>
-      </c>
-      <c r="B276" s="2">
-        <v>45332</v>
+        <v>9</v>
       </c>
       <c r="C276" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="D276">
-        <v>1.54</v>
+        <v>-9.98</v>
       </c>
       <c r="E276" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C277" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D277">
-        <v>1.74</v>
+        <v>-9.98</v>
       </c>
       <c r="E277" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B278" s="2">
-        <v>45606</v>
+        <v>45358</v>
       </c>
       <c r="C278" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D278">
-        <v>1.95</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="E278" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B279" s="2">
+        <v>45545</v>
       </c>
       <c r="C279" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D279">
-        <v>2.64</v>
+        <v>-9.890000000000001</v>
       </c>
       <c r="E279" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B280" s="2">
+        <v>45358</v>
       </c>
       <c r="C280" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D280">
-        <v>3.05</v>
+        <v>-9.710000000000001</v>
       </c>
       <c r="E280" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B281" s="2">
-        <v>45302</v>
+        <v>45631</v>
       </c>
       <c r="C281" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="D281">
-        <v>3.13</v>
+        <v>-9.5</v>
       </c>
       <c r="E281" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B282" s="2">
+        <v>45295</v>
       </c>
       <c r="C282" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D282">
-        <v>3.49</v>
+        <v>-9.470000000000001</v>
       </c>
       <c r="E282" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>11</v>
-      </c>
-      <c r="B283" s="2">
-        <v>45602</v>
+        <v>9</v>
       </c>
       <c r="C283" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D283">
-        <v>3.72</v>
+        <v>-9.289999999999999</v>
       </c>
       <c r="E283" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B284" s="2">
-        <v>45545</v>
+        <v>45358</v>
       </c>
       <c r="C284" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="D284">
-        <v>3.81</v>
+        <v>-8.99</v>
       </c>
       <c r="E284" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>11</v>
-      </c>
-      <c r="B285" s="2">
-        <v>45358</v>
+        <v>9</v>
       </c>
       <c r="C285" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="D285">
-        <v>3.84</v>
+        <v>-8.85</v>
       </c>
       <c r="E285" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C286" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="D286">
-        <v>3.88</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="E286" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>11</v>
-      </c>
-      <c r="B287" s="2">
-        <v>45483</v>
+        <v>9</v>
       </c>
       <c r="C287" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D287">
-        <v>4.37</v>
+        <v>-8.42</v>
       </c>
       <c r="E287" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B288" s="2">
+        <v>45543</v>
       </c>
       <c r="C288" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D288">
-        <v>4.76</v>
+        <v>-7.99</v>
       </c>
       <c r="E288" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C289" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D289">
-        <v>5.19</v>
+        <v>-7.64</v>
       </c>
       <c r="E289" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B290" s="2">
+        <v>45479</v>
       </c>
       <c r="C290" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D290">
-        <v>5.76</v>
+        <v>-7.61</v>
       </c>
       <c r="E290" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B291" s="2">
+        <v>45362</v>
       </c>
       <c r="C291" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D291">
-        <v>6.09</v>
+        <v>-7.51</v>
       </c>
       <c r="E291" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C292" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D292">
-        <v>6.23</v>
+        <v>-7.07</v>
       </c>
       <c r="E292" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B293" s="2">
+        <v>45416</v>
       </c>
       <c r="C293" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D293">
-        <v>6.3</v>
+        <v>-6.89</v>
       </c>
       <c r="E293" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>11</v>
-      </c>
-      <c r="B294" s="2">
-        <v>45450</v>
+        <v>9</v>
       </c>
       <c r="C294" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D294">
-        <v>6.54</v>
+        <v>-6.87</v>
       </c>
       <c r="E294" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C295" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D295">
-        <v>6.58</v>
+        <v>-6.58</v>
       </c>
       <c r="E295" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C296" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D296">
-        <v>6.87</v>
+        <v>-6.42</v>
       </c>
       <c r="E296" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C297" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D297">
-        <v>7.07</v>
+        <v>-6.3</v>
       </c>
       <c r="E297" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>11</v>
-      </c>
-      <c r="B298" s="2">
-        <v>45362</v>
+        <v>9</v>
       </c>
       <c r="C298" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D298">
-        <v>7.51</v>
+        <v>-6.23</v>
       </c>
       <c r="E298" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>11</v>
-      </c>
-      <c r="B299" s="2">
-        <v>45479</v>
+        <v>9</v>
       </c>
       <c r="C299" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="D299">
-        <v>7.61</v>
+        <v>-6.09</v>
       </c>
       <c r="E299" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C300" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D300">
-        <v>7.64</v>
+        <v>-5.76</v>
       </c>
       <c r="E300" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B301" s="2">
-        <v>45543</v>
+        <v>45569</v>
       </c>
       <c r="C301" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D301">
-        <v>7.99</v>
+        <v>-5.67</v>
       </c>
       <c r="E301" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C302" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D302">
-        <v>8.85</v>
+        <v>-5.67</v>
       </c>
       <c r="E302" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" t="s">
-        <v>11</v>
-      </c>
-      <c r="B303" s="2">
-        <v>45358</v>
+        <v>9</v>
       </c>
       <c r="C303" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D303">
-        <v>8.99</v>
+        <v>-5.33</v>
       </c>
       <c r="E303" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C304" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D304">
-        <v>9.289999999999999</v>
+        <v>-5.22</v>
       </c>
       <c r="E304" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" t="s">
-        <v>11</v>
-      </c>
-      <c r="B305" s="2">
-        <v>45358</v>
+        <v>9</v>
       </c>
       <c r="C305" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D305">
-        <v>9.710000000000001</v>
+        <v>-5.2</v>
       </c>
       <c r="E305" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" t="s">
-        <v>11</v>
-      </c>
-      <c r="B306" s="2">
-        <v>45545</v>
+        <v>9</v>
       </c>
       <c r="C306" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D306">
-        <v>9.890000000000001</v>
+        <v>-5.19</v>
       </c>
       <c r="E306" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="s">
-        <v>11</v>
-      </c>
-      <c r="B307" s="2">
-        <v>45358</v>
+        <v>9</v>
       </c>
       <c r="C307" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D307">
-        <v>9.949999999999999</v>
+        <v>-4.99</v>
       </c>
       <c r="E307" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C308" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D308">
-        <v>9.98</v>
+        <v>-4.76</v>
       </c>
       <c r="E308" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B309" s="2">
+        <v>45483</v>
       </c>
       <c r="C309" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D309">
-        <v>9.98</v>
+        <v>-4.37</v>
       </c>
       <c r="E309" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C310" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D310">
-        <v>9.98</v>
+        <v>-4.36</v>
       </c>
       <c r="E310" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C311" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D311">
-        <v>11</v>
+        <v>-4.24</v>
       </c>
       <c r="E311" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" t="s">
-        <v>11</v>
-      </c>
-      <c r="B312" s="2">
-        <v>45419</v>
+        <v>9</v>
       </c>
       <c r="C312" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D312">
-        <v>11.6</v>
+        <v>-4.19</v>
       </c>
       <c r="E312" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" t="s">
-        <v>11</v>
-      </c>
-      <c r="B313" s="2">
-        <v>45480</v>
+        <v>9</v>
       </c>
       <c r="C313" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D313">
-        <v>11.64</v>
+        <v>-4.18</v>
       </c>
       <c r="E313" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C314" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D314">
-        <v>12.91</v>
+        <v>-4.14</v>
       </c>
       <c r="E314" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" t="s">
-        <v>11</v>
-      </c>
-      <c r="B315" s="2">
-        <v>45544</v>
+        <v>9</v>
       </c>
       <c r="C315" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D315">
-        <v>12.91</v>
+        <v>-3.95</v>
       </c>
       <c r="E315" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B316" s="2">
+        <v>45417</v>
       </c>
       <c r="C316" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D316">
-        <v>12.99</v>
+        <v>-3.94</v>
       </c>
       <c r="E316" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B317" s="2">
+        <v>45358</v>
       </c>
       <c r="C317" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="D317">
-        <v>13.65</v>
+        <v>-3.84</v>
       </c>
       <c r="E317" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B318" s="2">
-        <v>45632</v>
+        <v>45545</v>
       </c>
       <c r="C318" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="D318">
-        <v>15.33</v>
+        <v>-3.81</v>
       </c>
       <c r="E318" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B319" s="2">
+        <v>45602</v>
       </c>
       <c r="C319" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D319">
-        <v>16.38</v>
+        <v>-3.72</v>
       </c>
       <c r="E319" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" t="s">
-        <v>11</v>
-      </c>
-      <c r="B320" s="2">
-        <v>45544</v>
+        <v>9</v>
       </c>
       <c r="C320" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D320">
-        <v>16.6</v>
+        <v>-3.64</v>
       </c>
       <c r="E320" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C321" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D321">
-        <v>17.21</v>
+        <v>-3.49</v>
       </c>
       <c r="E321" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C322" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D322">
-        <v>17.56</v>
+        <v>-3.48</v>
       </c>
       <c r="E322" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B323" s="2">
-        <v>45513</v>
+        <v>45302</v>
       </c>
       <c r="C323" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D323">
-        <v>17.73</v>
+        <v>-3.13</v>
       </c>
       <c r="E323" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" t="s">
-        <v>11</v>
-      </c>
-      <c r="B324" s="2">
-        <v>45329</v>
+        <v>9</v>
       </c>
       <c r="C324" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="D324">
-        <v>19.82</v>
+        <v>-3.05</v>
       </c>
       <c r="E324" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" t="s">
-        <v>11</v>
-      </c>
-      <c r="B325" s="2">
-        <v>45511</v>
+        <v>9</v>
       </c>
       <c r="C325" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D325">
-        <v>19.93</v>
+        <v>-2.64</v>
       </c>
       <c r="E325" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B326" s="2">
+        <v>45538</v>
       </c>
       <c r="C326" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D326">
-        <v>20.8</v>
+        <v>-2.26</v>
       </c>
       <c r="E326" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" t="s">
-        <v>11</v>
-      </c>
-      <c r="B327" s="2">
-        <v>45634</v>
+        <v>9</v>
       </c>
       <c r="C327" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D327">
-        <v>22.6</v>
+        <v>-2.24</v>
       </c>
       <c r="E327" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C328" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D328">
-        <v>23.83</v>
+        <v>-1.98</v>
       </c>
       <c r="E328" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B329" s="2">
+        <v>45606</v>
       </c>
       <c r="C329" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="D329">
-        <v>24.99</v>
+        <v>-1.95</v>
       </c>
       <c r="E329" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" t="s">
-        <v>11</v>
-      </c>
-      <c r="B330" s="2">
-        <v>45511</v>
+        <v>9</v>
       </c>
       <c r="C330" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D330">
-        <v>25.88</v>
+        <v>-1.79</v>
       </c>
       <c r="E330" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C331" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="D331">
-        <v>28.98</v>
+        <v>-1.74</v>
       </c>
       <c r="E331" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B332" s="2">
-        <v>45329</v>
+        <v>45332</v>
       </c>
       <c r="C332" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="D332">
-        <v>41.21</v>
+        <v>-1.54</v>
       </c>
       <c r="E332" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" t="s">
-        <v>11</v>
-      </c>
-      <c r="B333" s="2">
-        <v>45331</v>
+        <v>9</v>
       </c>
       <c r="C333" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="D333">
-        <v>44.62</v>
+        <v>-1.18</v>
       </c>
       <c r="E333" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B334" s="2">
-        <v>45419</v>
+        <v>45632</v>
       </c>
       <c r="C334" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D334">
-        <v>59.9</v>
+        <v>-1.15</v>
       </c>
       <c r="E334" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" t="s">
-        <v>12</v>
-      </c>
-      <c r="B335" s="2">
-        <v>45360</v>
+        <v>9</v>
       </c>
       <c r="C335" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="D335">
-        <v>0.7</v>
+        <v>-1.09</v>
       </c>
       <c r="E335" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" t="s">
-        <v>12</v>
-      </c>
-      <c r="B336" s="2">
-        <v>45391</v>
+        <v>9</v>
       </c>
       <c r="C336" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D336">
-        <v>0.92</v>
+        <v>-0.68</v>
       </c>
       <c r="E336" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B337" s="2">
-        <v>45360</v>
+        <v>45384</v>
       </c>
       <c r="C337" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="D337">
-        <v>1.23</v>
+        <v>-0.61</v>
       </c>
       <c r="E337" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B338" s="2">
+        <v>45360</v>
       </c>
       <c r="C338" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D338">
-        <v>-79.7</v>
+        <v>-1.23</v>
       </c>
       <c r="E338" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B339" s="2">
-        <v>45508</v>
+        <v>45358</v>
       </c>
       <c r="C339" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D339">
-        <v>-20.8</v>
+        <v>-0.95</v>
       </c>
       <c r="E339" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B340" s="2">
+        <v>45391</v>
       </c>
       <c r="C340" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D340">
-        <v>-17.4</v>
+        <v>-0.92</v>
       </c>
       <c r="E340" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B341" s="2">
+        <v>45360</v>
       </c>
       <c r="C341" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D341">
-        <v>-17.35</v>
+        <v>-0.7</v>
       </c>
       <c r="E341" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" t="s">
-        <v>13</v>
-      </c>
-      <c r="B342" s="2">
-        <v>45508</v>
+        <v>11</v>
       </c>
       <c r="C342" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D342">
-        <v>-15</v>
+        <v>-79.7</v>
       </c>
       <c r="E342" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" t="s">
-        <v>13</v>
-      </c>
-      <c r="B343" s="2">
-        <v>45508</v>
+        <v>11</v>
       </c>
       <c r="C343" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D343">
-        <v>-12.9</v>
+        <v>-26</v>
       </c>
       <c r="E343" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C344" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D344">
-        <v>-4.45</v>
+        <v>-20.8</v>
       </c>
       <c r="E344" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B345" s="2">
-        <v>45508</v>
+        <v>45358</v>
       </c>
       <c r="C345" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D345">
-        <v>-3</v>
+        <v>-19.6</v>
       </c>
       <c r="E345" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B346" s="2">
-        <v>45539</v>
+        <v>45448</v>
       </c>
       <c r="C346" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D346">
-        <v>-2.59</v>
+        <v>-19.2</v>
       </c>
       <c r="E346" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C347" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D347">
-        <v>-1.8</v>
+        <v>-17.4</v>
       </c>
       <c r="E347" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" t="s">
-        <v>13</v>
-      </c>
-      <c r="B348" s="2">
-        <v>45508</v>
+        <v>11</v>
       </c>
       <c r="C348" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D348">
-        <v>-1.2</v>
+        <v>-17.35</v>
       </c>
       <c r="E348" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B349" s="2">
-        <v>45574</v>
+        <v>45417</v>
       </c>
       <c r="C349" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D349">
-        <v>5.9</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="E349" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B350" s="2">
-        <v>45358</v>
+        <v>45574</v>
       </c>
       <c r="C350" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D350">
-        <v>19.6</v>
+        <v>-5.9</v>
       </c>
       <c r="E350" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C351" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D351">
-        <v>20.8</v>
+        <v>-5.59</v>
       </c>
       <c r="E351" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C352" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D352">
-        <v>26</v>
+        <v>-4.45</v>
       </c>
       <c r="E352" t="s">
-        <v>127</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" t="s">
+        <v>11</v>
+      </c>
+      <c r="C353" t="s">
+        <v>118</v>
+      </c>
+      <c r="D353">
+        <v>-1.8</v>
+      </c>
+      <c r="E353" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -6281,7 +6265,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6289,12 +6273,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="F2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6322,19 +6306,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>226.34</v>
+        <v>375.35</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>76.61</v>
-      </c>
-      <c r="H4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6342,132 +6317,65 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>795.1900000000001</v>
+        <v>2889.6</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>2779.87</v>
-      </c>
-      <c r="H5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>8.279999999999999</v>
+        <v>148.47</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>4.72</v>
-      </c>
-      <c r="H6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>208.2</v>
+        <v>364.44</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <v>38.25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>505.06</v>
+        <v>1222.05</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>45.19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>176.19</v>
+        <v>3.8</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>143.24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="F10" t="s">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="G10">
-        <v>739.9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11">
-        <v>2.85</v>
-      </c>
-      <c r="H11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12">
-        <v>72.30000000000001</v>
-      </c>
-      <c r="H12" t="s">
-        <v>127</v>
+      <c r="B10">
+        <v>227.49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/final.xlsx
+++ b/final.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="44">
   <si>
     <t>Kategooria</t>
   </si>
@@ -47,15 +47,24 @@
     <t>Ostlemine</t>
   </si>
   <si>
+    <t>Parkimine</t>
+  </si>
+  <si>
     <t>Reisimine</t>
   </si>
   <si>
+    <t>Sissetulekud</t>
+  </si>
+  <si>
     <t>Toidukaubad</t>
   </si>
   <si>
     <t>Transport</t>
   </si>
   <si>
+    <t>Valuuta vahetus</t>
+  </si>
+  <si>
     <t>Väljas söömine</t>
   </si>
   <si>
@@ -77,43 +86,46 @@
     <t>Twitch</t>
   </si>
   <si>
-    <t>Foot Locker</t>
+    <t>Raatuse Selver ABC</t>
+  </si>
+  <si>
+    <t>Rimi</t>
+  </si>
+  <si>
+    <t>Picu Darbnīca</t>
+  </si>
+  <si>
+    <t>Ujula Konsum</t>
+  </si>
+  <si>
+    <t>Delta Kohvik</t>
+  </si>
+  <si>
+    <t>Autodromo Nazionale Monza</t>
   </si>
   <si>
     <t>Wagamama</t>
   </si>
   <si>
-    <t>Raatuse Selver ABC</t>
-  </si>
-  <si>
-    <t>Rimi</t>
-  </si>
-  <si>
     <t>McDonald's</t>
   </si>
   <si>
     <t>R-Kiosk</t>
   </si>
   <si>
-    <t>Autodromo Nazionale Monza</t>
-  </si>
-  <si>
     <t>Selver</t>
   </si>
   <si>
     <t>Prisma</t>
   </si>
   <si>
+    <t>Terravision</t>
+  </si>
+  <si>
     <t>Ryanair</t>
   </si>
   <si>
-    <t>Carrefour</t>
-  </si>
-  <si>
-    <t>KLICK | Tallinn | Lennujaam</t>
-  </si>
-  <si>
-    <t>Terravision</t>
+    <t>Trenitalia</t>
   </si>
   <si>
     <t>ATM - Azienda Trasporti Milanesi</t>
@@ -122,10 +134,10 @@
     <t>Bolt</t>
   </si>
   <si>
-    <t>Hesburger</t>
-  </si>
-  <si>
-    <t>Delta Kohvik</t>
+    <t>Exchanged to USD</t>
+  </si>
+  <si>
+    <t>Ristogest</t>
   </si>
   <si>
     <t>EUR</t>
@@ -577,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -608,13 +620,13 @@
         <v>45577.88084490741</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -625,13 +637,13 @@
         <v>45568.75020833333</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -639,16 +651,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>45588.87888888889</v>
+        <v>45578.758125</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -656,33 +668,33 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>45590.435</v>
+        <v>45580.03552083333</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>2050</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>45590.82704861111</v>
+        <v>45578.03663194444</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>200</v>
+        <v>-28</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -690,16 +702,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>45578.03663194444</v>
+        <v>45597.04649305555</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>-28</v>
+        <v>-10</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -707,16 +719,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>45597.04649305555</v>
+        <v>45597.08680555555</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -724,16 +736,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>45597.08680555555</v>
+        <v>45596.97260416667</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -741,16 +753,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="2">
-        <v>45596.97260416667</v>
+        <v>45577.98553240741</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -758,67 +770,67 @@
         <v>6</v>
       </c>
       <c r="B11" s="2">
-        <v>45577.98553240741</v>
+        <v>45597.05402777778</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2">
-        <v>45597.05402777778</v>
+        <v>45577.94789351852</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>-3</v>
+        <v>-1.49</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2">
-        <v>45577.94789351852</v>
+        <v>45584.97138888889</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>-1.49</v>
+        <v>-4.99</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2">
-        <v>45584.97138888889</v>
+        <v>45580.49953703704</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>-4.99</v>
+        <v>-26.42</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -826,16 +838,16 @@
         <v>9</v>
       </c>
       <c r="B15" s="2">
-        <v>45590.81677083333</v>
+        <v>45582.65949074074</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>-43</v>
+        <v>-26.25</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -843,16 +855,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="2">
-        <v>45593.64960648148</v>
+        <v>45583.52611111111</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>-29.5</v>
+        <v>-23.65</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -860,16 +872,16 @@
         <v>9</v>
       </c>
       <c r="B17" s="2">
-        <v>45580.49953703704</v>
+        <v>45569.88305555555</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>-26.42</v>
+        <v>-23.04</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -877,16 +889,16 @@
         <v>9</v>
       </c>
       <c r="B18" s="2">
-        <v>45582.65949074074</v>
+        <v>45568.82695601852</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>-26.25</v>
+        <v>-20.13</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -894,16 +906,16 @@
         <v>9</v>
       </c>
       <c r="B19" s="2">
-        <v>45583.52611111111</v>
+        <v>45570.50954861111</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>-23.65</v>
+        <v>-19.6</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -911,16 +923,16 @@
         <v>9</v>
       </c>
       <c r="B20" s="2">
-        <v>45569.88305555555</v>
+        <v>45579.67605324074</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
       </c>
       <c r="D20">
-        <v>-23.04</v>
+        <v>-18.17</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -928,16 +940,16 @@
         <v>9</v>
       </c>
       <c r="B21" s="2">
-        <v>45568.82695601852</v>
+        <v>45569.68526620371</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>-20.13</v>
+        <v>-9.1</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -945,16 +957,16 @@
         <v>9</v>
       </c>
       <c r="B22" s="2">
-        <v>45570.50954861111</v>
+        <v>45571.59947916667</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>-19.6</v>
+        <v>-7.44</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -962,16 +974,16 @@
         <v>9</v>
       </c>
       <c r="B23" s="2">
-        <v>45579.67605324074</v>
+        <v>45576.42215277778</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>-18.17</v>
+        <v>-5.79</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -979,628 +991,594 @@
         <v>9</v>
       </c>
       <c r="B24" s="2">
-        <v>45566.81807870371</v>
+        <v>45572.89858796296</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>-17.79</v>
+        <v>-1.19</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2">
-        <v>45593.51762731482</v>
+        <v>45566.81807870371</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <v>-15.1</v>
+        <v>-8.9</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2">
-        <v>45590.43196759259</v>
+        <v>45591.57545138889</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>-7.5</v>
+        <v>-11</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B27" s="2">
         <v>45571.59947916667</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27">
         <v>-7.44</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2">
         <v>45591.75050925926</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D28">
         <v>-6</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B29" s="2">
-        <v>45565.58797453704</v>
+        <v>45588.87888888889</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>-3.49</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B30" s="2">
-        <v>45565.41159722222</v>
+        <v>45590.435</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>-2.51</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B31" s="2">
-        <v>45575.41471064815</v>
+        <v>45590.82704861111</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D31">
-        <v>-2.05</v>
+        <v>200</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B32" s="2">
-        <v>45577.59033564815</v>
+        <v>45595.56556712963</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>-1.95</v>
+        <v>-52.48</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B33" s="2">
-        <v>45572.89858796296</v>
+        <v>45600.70828703704</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
       </c>
       <c r="D33">
-        <v>-1.19</v>
+        <v>-31.39</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B34" s="2">
-        <v>45591.57545138889</v>
+        <v>45593.64960648148</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>-11</v>
+        <v>-29.5</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B35" s="2">
-        <v>45592.78392361111</v>
+        <v>45596.74337962963</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>-9</v>
+        <v>-27.56</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B36" s="2">
-        <v>45595.56556712963</v>
+        <v>45588.8865162037</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>-52.48</v>
+        <v>-26.06</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B37" s="2">
-        <v>45590.91216435185</v>
+        <v>45586.69855324074</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D37">
-        <v>-38.08</v>
+        <v>-24.95</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B38" s="2">
-        <v>45600.70828703704</v>
+        <v>45593.51762731482</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D38">
-        <v>-31.39</v>
+        <v>-15.1</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B39" s="2">
-        <v>45596.74337962963</v>
+        <v>45600.57346064815</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>-27.56</v>
+        <v>-7.97</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B40" s="2">
-        <v>45588.8865162037</v>
+        <v>45590.43196759259</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D40">
-        <v>-26.06</v>
+        <v>-7.5</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B41" s="2">
-        <v>45586.69855324074</v>
+        <v>45589.80625</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D41">
-        <v>-24.95</v>
+        <v>-6.27</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B42" s="2">
-        <v>45590.43310185185</v>
+        <v>45594.326875</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D42">
-        <v>-19.99</v>
+        <v>-6.13</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B43" s="2">
-        <v>45600.57346064815</v>
+        <v>45598.75636574074</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D43">
-        <v>-7.97</v>
+        <v>-1.43</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B44" s="2">
-        <v>45589.80625</v>
+        <v>45590.62894675926</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D44">
-        <v>-6.27</v>
+        <v>-12</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B45" s="2">
-        <v>45594.326875</v>
+        <v>45592.78392361111</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D45">
-        <v>-6.13</v>
+        <v>-9</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B46" s="2">
-        <v>45590.62894675926</v>
+        <v>45590.84234953704</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D46">
-        <v>-12</v>
+        <v>-5.1</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B47" s="2">
-        <v>45590.68072916667</v>
+        <v>45590.77087962963</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D47">
         <v>-2.2</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B48" s="2">
         <v>45591.53118055555</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D48">
         <v>-2.2</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B49" s="2">
         <v>45568.65204861111</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D49">
         <v>-0.89</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B50" s="2">
         <v>45578.75929398148</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D50">
         <v>-0.61</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B51" s="2">
         <v>45600.70974537037</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D51">
         <v>-0.61</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B52" s="2">
         <v>45579.67689814815</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D52">
         <v>-0.58</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B53" s="2">
         <v>45573.42178240741</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D53">
         <v>-0.53</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B54" s="2">
         <v>45597.12800925926</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D54">
         <v>-0.48</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B55" s="2">
         <v>45572.94694444445</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D55">
         <v>-0.44</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B56" s="2">
         <v>45565.58585648148</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D56">
         <v>-0.36</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B57" s="2">
-        <v>45584.97138888889</v>
+        <v>45570.92561342593</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D57">
-        <v>-0.36</v>
+        <v>-10</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B58" s="2">
-        <v>45578.1069212963</v>
+        <v>45592.59590277778</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D58">
-        <v>-9.1</v>
+        <v>-22.5</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="2">
-        <v>45568.57311342593</v>
-      </c>
-      <c r="C59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59">
-        <v>-8.9</v>
-      </c>
-      <c r="E59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="2">
-        <v>45572.94270833334</v>
-      </c>
-      <c r="C60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60">
-        <v>-7</v>
-      </c>
-      <c r="E60" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1611,7 +1589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1619,12 +1597,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="F2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1655,16 +1633,16 @@
         <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4">
-        <v>550</v>
+        <v>2300</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1675,7 +1653,16 @@
         <v>1.49</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>400</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1686,7 +1673,7 @@
         <v>4.99</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1694,10 +1681,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>294.78</v>
+        <v>180.78</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1705,10 +1692,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>8.9</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1716,32 +1703,54 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>240.88</v>
+        <v>24.44</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>21.26</v>
+        <v>236.34</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>22.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/final.xlsx
+++ b/final.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="48">
   <si>
     <t>Kategooria</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Valuuta</t>
   </si>
   <si>
-    <t>Apple pay top-up</t>
-  </si>
-  <si>
     <t>Baarid</t>
   </si>
   <si>
@@ -68,76 +65,91 @@
     <t>Väljas söömine</t>
   </si>
   <si>
+    <t>Labor Baar</t>
+  </si>
+  <si>
+    <t>Mits Halloween</t>
+  </si>
+  <si>
+    <t>Möku</t>
+  </si>
+  <si>
+    <t>Circle K Gas Station</t>
+  </si>
+  <si>
+    <t>Twitch</t>
+  </si>
+  <si>
+    <t>Rl Fashions Of Europe</t>
+  </si>
+  <si>
+    <t>Foot Locker</t>
+  </si>
+  <si>
+    <t>KLICK | Tallinn | Lennujaam</t>
+  </si>
+  <si>
+    <t>ATM - Azienda Trasporti Milanesi</t>
+  </si>
+  <si>
+    <t>Autodromo Nazionale Monza</t>
+  </si>
+  <si>
+    <t>Ryanair</t>
+  </si>
+  <si>
     <t>Apple Pay Top-Up by *9481</t>
   </si>
   <si>
-    <t>Labor Baar</t>
-  </si>
-  <si>
-    <t>Mits Halloween</t>
-  </si>
-  <si>
-    <t>Möku</t>
-  </si>
-  <si>
-    <t>Circle K Gas Station</t>
-  </si>
-  <si>
-    <t>Twitch</t>
-  </si>
-  <si>
     <t>Raatuse Selver ABC</t>
   </si>
   <si>
+    <t>Carrefour</t>
+  </si>
+  <si>
     <t>Rimi</t>
   </si>
   <si>
+    <t>R-Kiosk</t>
+  </si>
+  <si>
+    <t>Selver</t>
+  </si>
+  <si>
+    <t>Prisma</t>
+  </si>
+  <si>
+    <t>Ujula Konsum</t>
+  </si>
+  <si>
+    <t>Terravision</t>
+  </si>
+  <si>
+    <t>Trenitalia</t>
+  </si>
+  <si>
+    <t>Bolt</t>
+  </si>
+  <si>
+    <t>Exchanged to USD</t>
+  </si>
+  <si>
+    <t>Wagamama</t>
+  </si>
+  <si>
+    <t>Ristogest</t>
+  </si>
+  <si>
+    <t>McDonald's</t>
+  </si>
+  <si>
     <t>Picu Darbnīca</t>
   </si>
   <si>
-    <t>Ujula Konsum</t>
+    <t>Hesburger</t>
   </si>
   <si>
     <t>Delta Kohvik</t>
-  </si>
-  <si>
-    <t>Autodromo Nazionale Monza</t>
-  </si>
-  <si>
-    <t>Wagamama</t>
-  </si>
-  <si>
-    <t>McDonald's</t>
-  </si>
-  <si>
-    <t>R-Kiosk</t>
-  </si>
-  <si>
-    <t>Selver</t>
-  </si>
-  <si>
-    <t>Prisma</t>
-  </si>
-  <si>
-    <t>Terravision</t>
-  </si>
-  <si>
-    <t>Ryanair</t>
-  </si>
-  <si>
-    <t>Trenitalia</t>
-  </si>
-  <si>
-    <t>ATM - Azienda Trasporti Milanesi</t>
-  </si>
-  <si>
-    <t>Bolt</t>
-  </si>
-  <si>
-    <t>Exchanged to USD</t>
-  </si>
-  <si>
-    <t>Ristogest</t>
   </si>
   <si>
     <t>EUR</t>
@@ -589,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>45577.88084490741</v>
+        <v>45578.03663194444</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>-28</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -634,16 +646,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>45568.75020833333</v>
+        <v>45597.04649305555</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>-10</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -651,16 +663,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>45578.758125</v>
+        <v>45597.08680555555</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>-6</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -668,50 +680,50 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>45580.03552083333</v>
+        <v>45596.97260416667</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5">
-        <v>2050</v>
+        <v>-5</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>45578.03663194444</v>
+        <v>45577.98553240741</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6">
-        <v>-28</v>
+        <v>-4</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>45597.04649305555</v>
+        <v>45597.05402777778</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -719,101 +731,101 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>45597.08680555555</v>
+        <v>45577.94789351852</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8">
-        <v>-6</v>
+        <v>-1.49</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>45596.97260416667</v>
+        <v>45584.97138888889</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>-5</v>
+        <v>-4.99</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>45577.98553240741</v>
+        <v>45590.77087962963</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>-4</v>
+        <v>-56</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>45597.05402777778</v>
+        <v>45590.81677083333</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>-3</v>
+        <v>-43</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
-        <v>45577.94789351852</v>
+        <v>45590.43310185185</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>-1.49</v>
+        <v>-19.99</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2">
-        <v>45584.97138888889</v>
+        <v>45590.68072916667</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>-4.99</v>
+        <v>-2.2</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -821,254 +833,254 @@
         <v>9</v>
       </c>
       <c r="B14" s="2">
-        <v>45580.49953703704</v>
+        <v>45591.53118055555</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>-26.42</v>
+        <v>-2.2</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2">
-        <v>45582.65949074074</v>
+        <v>45591.57545138889</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>-26.25</v>
+        <v>-11</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2">
-        <v>45583.52611111111</v>
+        <v>45592.78392361111</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>-23.65</v>
+        <v>-9</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2">
-        <v>45569.88305555555</v>
+        <v>45591.75050925926</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>-23.04</v>
+        <v>-6</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2">
-        <v>45568.82695601852</v>
+        <v>45577.88084490741</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>-20.13</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2">
-        <v>45570.50954861111</v>
+        <v>45568.75020833333</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>-19.6</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2">
-        <v>45579.67605324074</v>
+        <v>45578.758125</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>-18.17</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2">
-        <v>45569.68526620371</v>
+        <v>45588.87888888889</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>-9.1</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B22" s="2">
-        <v>45571.59947916667</v>
+        <v>45590.435</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>-7.44</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2">
-        <v>45576.42215277778</v>
+        <v>45590.82704861111</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>-5.79</v>
+        <v>200</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2">
-        <v>45572.89858796296</v>
+        <v>45580.03552083333</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>-1.19</v>
+        <v>2050</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B25" s="2">
-        <v>45566.81807870371</v>
+        <v>45595.56556712963</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>-8.9</v>
+        <v>-52.48</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" s="2">
-        <v>45591.57545138889</v>
+        <v>45590.91216435185</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26">
-        <v>-11</v>
+        <v>-38.08</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" s="2">
-        <v>45571.59947916667</v>
+        <v>45600.70828703704</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>-7.44</v>
+        <v>-31.39</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" s="2">
-        <v>45591.75050925926</v>
+        <v>45596.74337962963</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
       </c>
       <c r="D28">
-        <v>-6</v>
+        <v>-27.56</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1076,16 +1088,16 @@
         <v>12</v>
       </c>
       <c r="B29" s="2">
-        <v>45588.87888888889</v>
+        <v>45580.49953703704</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>100</v>
+        <v>-26.42</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1093,16 +1105,16 @@
         <v>12</v>
       </c>
       <c r="B30" s="2">
-        <v>45590.435</v>
+        <v>45582.65949074074</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>-26.25</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1110,157 +1122,157 @@
         <v>12</v>
       </c>
       <c r="B31" s="2">
-        <v>45590.82704861111</v>
+        <v>45588.8865162037</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D31">
-        <v>200</v>
+        <v>-26.06</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="2">
-        <v>45595.56556712963</v>
+        <v>45586.69855324074</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D32">
-        <v>-52.48</v>
+        <v>-24.95</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="2">
-        <v>45600.70828703704</v>
+        <v>45583.52611111111</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>-31.39</v>
+        <v>-23.65</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2">
-        <v>45593.64960648148</v>
+        <v>45569.88305555555</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34">
-        <v>-29.5</v>
+        <v>-23.04</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="2">
-        <v>45596.74337962963</v>
+        <v>45568.82695601852</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D35">
-        <v>-27.56</v>
+        <v>-20.13</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="2">
-        <v>45588.8865162037</v>
+        <v>45570.50954861111</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D36">
-        <v>-26.06</v>
+        <v>-19.6</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="2">
-        <v>45586.69855324074</v>
+        <v>45579.67605324074</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D37">
-        <v>-24.95</v>
+        <v>-18.17</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="2">
-        <v>45593.51762731482</v>
+        <v>45566.81807870371</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D38">
-        <v>-15.1</v>
+        <v>-17.79</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2">
         <v>45600.57346064815</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D39">
         <v>-7.97</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" s="2">
         <v>45590.43196759259</v>
@@ -1272,313 +1284,483 @@
         <v>-7.5</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="2">
-        <v>45589.80625</v>
+        <v>45571.59947916667</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D41">
-        <v>-6.27</v>
+        <v>-7.44</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" s="2">
-        <v>45594.326875</v>
+        <v>45589.80625</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <v>-6.13</v>
+        <v>-6.27</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="2">
-        <v>45598.75636574074</v>
+        <v>45594.326875</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D43">
-        <v>-1.43</v>
+        <v>-6.13</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B44" s="2">
-        <v>45590.62894675926</v>
+        <v>45576.42215277778</v>
       </c>
       <c r="C44" t="s">
         <v>34</v>
       </c>
       <c r="D44">
-        <v>-12</v>
+        <v>-5.79</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B45" s="2">
-        <v>45592.78392361111</v>
+        <v>45565.58797453704</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D45">
-        <v>-9</v>
+        <v>-3.49</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B46" s="2">
-        <v>45590.84234953704</v>
+        <v>45565.41159722222</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D46">
-        <v>-5.1</v>
+        <v>-2.51</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B47" s="2">
-        <v>45590.77087962963</v>
+        <v>45575.41471064815</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D47">
-        <v>-2.2</v>
+        <v>-2.05</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B48" s="2">
-        <v>45591.53118055555</v>
+        <v>45577.59033564815</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D48">
-        <v>-2.2</v>
+        <v>-1.95</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B49" s="2">
-        <v>45568.65204861111</v>
+        <v>45598.75636574074</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D49">
-        <v>-0.89</v>
+        <v>-1.43</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B50" s="2">
-        <v>45578.75929398148</v>
+        <v>45572.89858796296</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D50">
-        <v>-0.61</v>
+        <v>-1.19</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51" s="2">
-        <v>45600.70974537037</v>
+        <v>45590.62894675926</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D51">
-        <v>-0.61</v>
+        <v>-12</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" s="2">
-        <v>45579.67689814815</v>
+        <v>45590.84234953704</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D52">
-        <v>-0.58</v>
+        <v>-5.1</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53" s="2">
-        <v>45573.42178240741</v>
+        <v>45568.65204861111</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D53">
-        <v>-0.53</v>
+        <v>-0.89</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54" s="2">
-        <v>45597.12800925926</v>
+        <v>45578.75929398148</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D54">
-        <v>-0.48</v>
+        <v>-0.61</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55" s="2">
-        <v>45572.94694444445</v>
+        <v>45600.70974537037</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D55">
-        <v>-0.44</v>
+        <v>-0.61</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56" s="2">
-        <v>45565.58585648148</v>
+        <v>45579.67689814815</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D56">
-        <v>-0.36</v>
+        <v>-0.58</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B57" s="2">
-        <v>45570.92561342593</v>
+        <v>45573.42178240741</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D57">
-        <v>-10</v>
+        <v>-0.53</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B58" s="2">
+        <v>45597.12800925926</v>
+      </c>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58">
+        <v>-0.48</v>
+      </c>
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45572.94694444445</v>
+      </c>
+      <c r="C59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59">
+        <v>-0.44</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45565.58585648148</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60">
+        <v>-0.36</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45570.92561342593</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61">
+        <v>-10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45593.64960648148</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62">
+        <v>-29.5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="2">
         <v>45592.59590277778</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C63" t="s">
         <v>40</v>
       </c>
-      <c r="D58">
+      <c r="D63">
         <v>-22.5</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45593.51762731482</v>
+      </c>
+      <c r="C64" t="s">
         <v>41</v>
+      </c>
+      <c r="D64">
+        <v>-15.1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="2">
+        <v>45569.68526620371</v>
+      </c>
+      <c r="C65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65">
+        <v>-9.1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="2">
+        <v>45578.1069212963</v>
+      </c>
+      <c r="C66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66">
+        <v>-9.1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="2">
+        <v>45568.57311342593</v>
+      </c>
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67">
+        <v>-8.9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="2">
+        <v>45572.94270833334</v>
+      </c>
+      <c r="C68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68">
+        <v>-7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1597,12 +1779,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="F2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1627,130 +1809,121 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1.49</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>400</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>4.99</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>180.78</v>
+        <v>118.99</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>8.9</v>
+        <v>4.4</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>24.44</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>236.34</v>
+        <v>429.29</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>21.6</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>22.5</v>
+        <v>101.2</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/final.xlsx
+++ b/final.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="48">
   <si>
     <t>Kategooria</t>
   </si>
@@ -601,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1632,13 +1632,13 @@
         <v>14</v>
       </c>
       <c r="B61" s="2">
-        <v>45570.92561342593</v>
+        <v>45580.03811342592</v>
       </c>
       <c r="C61" t="s">
         <v>38</v>
       </c>
       <c r="D61">
-        <v>-10</v>
+        <v>-2020</v>
       </c>
       <c r="E61" t="s">
         <v>45</v>
@@ -1646,16 +1646,16 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B62" s="2">
-        <v>45593.64960648148</v>
+        <v>45570.92561342593</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D62">
-        <v>-29.5</v>
+        <v>-10</v>
       </c>
       <c r="E62" t="s">
         <v>45</v>
@@ -1666,13 +1666,13 @@
         <v>15</v>
       </c>
       <c r="B63" s="2">
-        <v>45592.59590277778</v>
+        <v>45593.64960648148</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D63">
-        <v>-22.5</v>
+        <v>-29.5</v>
       </c>
       <c r="E63" t="s">
         <v>45</v>
@@ -1683,13 +1683,13 @@
         <v>15</v>
       </c>
       <c r="B64" s="2">
-        <v>45593.51762731482</v>
+        <v>45592.59590277778</v>
       </c>
       <c r="C64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D64">
-        <v>-15.1</v>
+        <v>-22.5</v>
       </c>
       <c r="E64" t="s">
         <v>45</v>
@@ -1700,13 +1700,13 @@
         <v>15</v>
       </c>
       <c r="B65" s="2">
-        <v>45569.68526620371</v>
+        <v>45593.51762731482</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D65">
-        <v>-9.1</v>
+        <v>-15.1</v>
       </c>
       <c r="E65" t="s">
         <v>45</v>
@@ -1717,10 +1717,10 @@
         <v>15</v>
       </c>
       <c r="B66" s="2">
-        <v>45578.1069212963</v>
+        <v>45569.68526620371</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D66">
         <v>-9.1</v>
@@ -1734,13 +1734,13 @@
         <v>15</v>
       </c>
       <c r="B67" s="2">
-        <v>45568.57311342593</v>
+        <v>45578.1069212963</v>
       </c>
       <c r="C67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D67">
-        <v>-8.9</v>
+        <v>-9.1</v>
       </c>
       <c r="E67" t="s">
         <v>45</v>
@@ -1751,15 +1751,32 @@
         <v>15</v>
       </c>
       <c r="B68" s="2">
+        <v>45568.57311342593</v>
+      </c>
+      <c r="C68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68">
+        <v>-8.9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="2">
         <v>45572.94270833334</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>43</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <v>-7</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1909,7 +1926,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>2030</v>
       </c>
       <c r="C12" t="s">
         <v>45</v>
